--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2942701.618021165</v>
+        <v>2940404.754205675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5648925.111355006</v>
+        <v>5648925.111355023</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8880926.672705406</v>
+        <v>8880926.672705404</v>
       </c>
     </row>
     <row r="11">
@@ -659,64 +659,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>14.30770962901293</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>55.71194092525318</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.782380439658769</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>20.49173784991508</v>
       </c>
     </row>
     <row r="4">
@@ -835,49 +835,49 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40.23748444544577</v>
       </c>
       <c r="C5" t="n">
-        <v>178.1573130319831</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.13763404307768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>16.70151611382837</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,46 +1069,46 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>190.1066023865956</v>
+        <v>48.16522454442876</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="D9" t="n">
-        <v>90.26012311038536</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.3570135595525</v>
       </c>
       <c r="H11" t="n">
-        <v>299.065656655657</v>
+        <v>299.0656566556569</v>
       </c>
       <c r="I11" t="n">
-        <v>58.3583667728081</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.1068849484071</v>
+        <v>119.106884948407</v>
       </c>
       <c r="T11" t="n">
         <v>205.8234429485686</v>
@@ -1467,7 +1467,7 @@
         <v>91.84619487460519</v>
       </c>
       <c r="I12" t="n">
-        <v>16.71016260125772</v>
+        <v>16.71016260125771</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>54.75458228155105</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.71153510303043</v>
       </c>
       <c r="S13" t="n">
         <v>193.1717904191954</v>
@@ -1582,16 +1582,16 @@
         <v>220.3832213634118</v>
       </c>
       <c r="U13" t="n">
-        <v>255.9477910520891</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>411.3570135595525</v>
@@ -1664,13 +1664,13 @@
         <v>251.0299949913899</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>91.84619487460519</v>
       </c>
       <c r="I15" t="n">
-        <v>16.71016260125772</v>
+        <v>16.71016260125771</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.71153510303044</v>
+        <v>97.71153510303049</v>
       </c>
       <c r="S16" t="n">
         <v>193.1717904191954</v>
       </c>
       <c r="T16" t="n">
-        <v>179.4180705303076</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U16" t="n">
         <v>286.2224884875777</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>136.476096020675</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>411.3570135595525</v>
       </c>
       <c r="H17" t="n">
-        <v>299.065656655657</v>
+        <v>299.0656566556571</v>
       </c>
       <c r="I17" t="n">
-        <v>58.3583667728081</v>
+        <v>58.35836677280815</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>251.0299949913899</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>97.7115351030305</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U19" t="n">
-        <v>264.0624554294646</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>61.02643870987998</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>411.3570135595525</v>
       </c>
       <c r="H20" t="n">
-        <v>299.0656566556567</v>
+        <v>299.0656566556571</v>
       </c>
       <c r="I20" t="n">
-        <v>58.3583667728081</v>
+        <v>58.35836677280815</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4933114571424</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7.887974956549269</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.7115351030305</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.3832213634119</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,10 +2333,10 @@
         <v>411.3570135595525</v>
       </c>
       <c r="H23" t="n">
-        <v>299.065656655657</v>
+        <v>299.0656566556571</v>
       </c>
       <c r="I23" t="n">
-        <v>58.3583667728081</v>
+        <v>58.35836677280838</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.1068849484071</v>
+        <v>119.1068849484072</v>
       </c>
       <c r="T23" t="n">
         <v>205.8234429485686</v>
@@ -2412,10 +2412,10 @@
         <v>135.2323687279194</v>
       </c>
       <c r="H24" t="n">
-        <v>91.84619487460519</v>
+        <v>91.84619487460523</v>
       </c>
       <c r="I24" t="n">
-        <v>16.71016260125772</v>
+        <v>16.71016260125786</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.4695148606001</v>
+        <v>132.4695148606002</v>
       </c>
       <c r="T24" t="n">
         <v>191.6553189929242</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>90.59842081357124</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>97.71153510303066</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.1717904191955</v>
       </c>
       <c r="T25" t="n">
-        <v>107.9636831044684</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U25" t="n">
         <v>286.2224884875777</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>97.71153510303044</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>83.07133308801039</v>
+        <v>3.61008028222765</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.3570135595525</v>
+        <v>411.3570135595522</v>
       </c>
       <c r="H29" t="n">
         <v>299.065656655657</v>
       </c>
       <c r="I29" t="n">
-        <v>58.35836677286304</v>
+        <v>58.3583667728081</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>15.5841603343477</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.71153510303044</v>
+        <v>97.71153510303039</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2224884875777</v>
+        <v>286.2224884875776</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>209.6419117280934</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.3570135595525</v>
+        <v>411.3570135595522</v>
       </c>
       <c r="H32" t="n">
         <v>299.065656655657</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006785235</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.0998663845606</v>
+        <v>155.0998663845615</v>
       </c>
       <c r="C34" t="n">
-        <v>142.5147073012511</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.8833592208357</v>
+        <v>123.8833592208366</v>
       </c>
       <c r="E34" t="n">
-        <v>121.7018488491925</v>
+        <v>121.7018488491934</v>
       </c>
       <c r="F34" t="n">
-        <v>120.6889342255546</v>
+        <v>120.6889342255554</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>141.4889496310071</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>77.49216206905425</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>72.97942130565464</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4396766218196</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>195.651107566036</v>
       </c>
       <c r="U34" t="n">
-        <v>220.9699378362254</v>
+        <v>261.4903746902019</v>
       </c>
       <c r="V34" t="n">
-        <v>227.4055295264513</v>
+        <v>227.4055295264522</v>
       </c>
       <c r="W34" t="n">
-        <v>261.7908845392143</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9775415916605</v>
+        <v>200.9775415916613</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.8525395547181</v>
+        <v>56.57070148573174</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C35" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D35" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E35" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F35" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G35" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H35" t="n">
         <v>243.259145646119</v>
       </c>
       <c r="I35" t="n">
-        <v>2.551855763270098</v>
+        <v>2.551855763270048</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.30037393886904</v>
+        <v>63.30037393886901</v>
       </c>
       <c r="T35" t="n">
-        <v>150.0169319390306</v>
+        <v>150.0169319390305</v>
       </c>
       <c r="U35" t="n">
-        <v>195.2234839818519</v>
+        <v>195.2234839818518</v>
       </c>
       <c r="V35" t="n">
         <v>271.9457474605969</v>
@@ -3332,7 +3332,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D37" t="n">
-        <v>92.80896200867436</v>
+        <v>92.80896200867431</v>
       </c>
       <c r="E37" t="n">
-        <v>90.62745163703117</v>
+        <v>90.62745163703113</v>
       </c>
       <c r="F37" t="n">
-        <v>89.61453701339325</v>
+        <v>89.6145370133932</v>
       </c>
       <c r="G37" t="n">
-        <v>110.4145524188449</v>
+        <v>110.4145524188448</v>
       </c>
       <c r="H37" t="n">
-        <v>90.68449986504511</v>
+        <v>90.68449986504507</v>
       </c>
       <c r="I37" t="n">
-        <v>46.41776485689294</v>
+        <v>46.41776485689288</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90502409349244</v>
+        <v>41.90502409349239</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3652794096574</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T37" t="n">
         <v>164.5767103538738</v>
       </c>
       <c r="U37" t="n">
-        <v>230.4159774780397</v>
+        <v>230.4159774780396</v>
       </c>
       <c r="V37" t="n">
         <v>196.33113231429</v>
@@ -3487,10 +3487,10 @@
         <v>230.716487327053</v>
       </c>
       <c r="X37" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.7781423425568</v>
+        <v>162.7781423425567</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C38" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D38" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E38" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F38" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321733</v>
       </c>
       <c r="G38" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H38" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I38" t="n">
-        <v>2.551855763270112</v>
+        <v>2.551855763270019</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.30037393886904</v>
+        <v>63.30037393886899</v>
       </c>
       <c r="T38" t="n">
-        <v>150.0169319390306</v>
+        <v>150.0169319390305</v>
       </c>
       <c r="U38" t="n">
-        <v>195.2234839818519</v>
+        <v>195.2234839818518</v>
       </c>
       <c r="V38" t="n">
-        <v>271.9457474605969</v>
+        <v>271.9457474605968</v>
       </c>
       <c r="W38" t="n">
-        <v>293.434457707875</v>
+        <v>293.4344577078749</v>
       </c>
       <c r="X38" t="n">
-        <v>313.924589668931</v>
+        <v>313.9245896689309</v>
       </c>
       <c r="Y38" t="n">
-        <v>330.4314276465158</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.0254691723993</v>
+        <v>124.0254691723992</v>
       </c>
       <c r="C40" t="n">
         <v>111.4403100890898</v>
       </c>
       <c r="D40" t="n">
-        <v>92.80896200867436</v>
+        <v>92.80896200867429</v>
       </c>
       <c r="E40" t="n">
-        <v>90.62745163703117</v>
+        <v>90.62745163703194</v>
       </c>
       <c r="F40" t="n">
-        <v>89.61453701339325</v>
+        <v>89.61453701339317</v>
       </c>
       <c r="G40" t="n">
-        <v>110.4145524188449</v>
+        <v>110.4145524188448</v>
       </c>
       <c r="H40" t="n">
-        <v>90.68449986504511</v>
+        <v>90.68449986504504</v>
       </c>
       <c r="I40" t="n">
-        <v>46.41776485689294</v>
+        <v>46.41776485689287</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.90502409349244</v>
+        <v>41.90502409349237</v>
       </c>
       <c r="S40" t="n">
-        <v>137.3652794096574</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T40" t="n">
         <v>164.5767103538738</v>
       </c>
       <c r="U40" t="n">
-        <v>230.4159774780397</v>
+        <v>230.4159774780396</v>
       </c>
       <c r="V40" t="n">
-        <v>196.33113231429</v>
+        <v>196.3311323142899</v>
       </c>
       <c r="W40" t="n">
-        <v>230.716487327053</v>
+        <v>230.7164873270529</v>
       </c>
       <c r="X40" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.7781423425568</v>
+        <v>162.7781423425567</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C41" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D41" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E41" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F41" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G41" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H41" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I41" t="n">
-        <v>2.551855763270112</v>
+        <v>2.551855763270076</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D43" t="n">
-        <v>92.80896200867436</v>
+        <v>92.80896200867434</v>
       </c>
       <c r="E43" t="n">
-        <v>90.62745163703117</v>
+        <v>90.62745163703116</v>
       </c>
       <c r="F43" t="n">
-        <v>89.61453701339325</v>
+        <v>89.61453701339323</v>
       </c>
       <c r="G43" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68449986504402</v>
+        <v>90.6844998650451</v>
       </c>
       <c r="I43" t="n">
-        <v>46.41776485689294</v>
+        <v>46.41776485689291</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90502409349244</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3652794096574</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T43" t="n">
         <v>164.5767103538738</v>
@@ -3961,7 +3961,7 @@
         <v>230.716487327053</v>
       </c>
       <c r="X43" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y43" t="n">
         <v>162.7781423425568</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C44" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D44" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E44" t="n">
-        <v>326.1238590627239</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F44" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G44" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H44" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I44" t="n">
-        <v>2.551855763270147</v>
+        <v>2.551855763270083</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.3003739388691</v>
+        <v>63.30037393886904</v>
       </c>
       <c r="T44" t="n">
         <v>150.0169319390306</v>
@@ -4034,16 +4034,16 @@
         <v>195.2234839818519</v>
       </c>
       <c r="V44" t="n">
-        <v>271.945747460597</v>
+        <v>271.9457474605969</v>
       </c>
       <c r="W44" t="n">
-        <v>293.4344577078751</v>
+        <v>293.434457707875</v>
       </c>
       <c r="X44" t="n">
-        <v>313.9245896689311</v>
+        <v>313.9245896689299</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.4314276465157</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>124.0254691723993</v>
       </c>
       <c r="C46" t="n">
-        <v>111.4403100890899</v>
+        <v>111.4403100890898</v>
       </c>
       <c r="D46" t="n">
-        <v>92.8089620086744</v>
+        <v>92.80896200867434</v>
       </c>
       <c r="E46" t="n">
-        <v>90.62745163703121</v>
+        <v>90.62745163703116</v>
       </c>
       <c r="F46" t="n">
-        <v>89.61453701339329</v>
+        <v>89.61453701339323</v>
       </c>
       <c r="G46" t="n">
-        <v>110.4145524188449</v>
+        <v>110.4145524188448</v>
       </c>
       <c r="H46" t="n">
-        <v>90.68449986504515</v>
+        <v>90.6844998650451</v>
       </c>
       <c r="I46" t="n">
-        <v>46.41776485689298</v>
+        <v>46.41776485689291</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90502409349249</v>
+        <v>41.90502409349242</v>
       </c>
       <c r="S46" t="n">
-        <v>137.3652794096561</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T46" t="n">
-        <v>164.5767103538739</v>
+        <v>164.5767103538738</v>
       </c>
       <c r="U46" t="n">
         <v>230.4159774780397</v>
@@ -4198,7 +4198,7 @@
         <v>230.716487327053</v>
       </c>
       <c r="X46" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y46" t="n">
         <v>162.7781423425568</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>746.3079049238204</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C2" t="n">
-        <v>502.8591282797204</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D2" t="n">
-        <v>502.8591282797204</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E2" t="n">
-        <v>502.8591282797204</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>277.1821517028107</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>33.73337505871064</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>746.3079049238204</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>746.3079049238204</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>746.3079049238204</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X2" t="n">
-        <v>746.3079049238204</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y2" t="n">
-        <v>746.3079049238204</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.8719047609702</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C3" t="n">
-        <v>518.4188754798432</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D3" t="n">
-        <v>369.484465818592</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E3" t="n">
-        <v>369.484465818592</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
         <v>109.5807722530562</v>
@@ -4410,19 +4410,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>861.0872417810383</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>861.0872417810383</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>861.0872417810383</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>861.0872417810383</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>861.0872417810383</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X3" t="n">
-        <v>861.0872417810383</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.0872417810383</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4525,13 +4525,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422.7646269515677</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C6" t="n">
-        <v>248.3115976704407</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>886.1403534469214</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>886.1403534469214</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>886.1403534469214</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>657.9167351833105</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>422.7646269515677</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W6" t="n">
-        <v>422.7646269515677</v>
+        <v>336.430889791532</v>
       </c>
       <c r="X6" t="n">
-        <v>422.7646269515677</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y6" t="n">
-        <v>422.7646269515677</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E8" t="n">
         <v>41.68395448076474</v>
@@ -4823,28 +4823,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V8" t="n">
-        <v>528.5815077689649</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W8" t="n">
-        <v>528.5815077689649</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X8" t="n">
-        <v>528.5815077689649</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y8" t="n">
         <v>285.1327311248648</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.2071172886402</v>
+        <v>137.2441409110171</v>
       </c>
       <c r="C9" t="n">
-        <v>111.2071172886402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4911,22 +4911,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>318.9674160535941</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X9" t="n">
-        <v>318.9674160535941</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y9" t="n">
-        <v>111.2071172886402</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="10">
@@ -4987,10 +4987,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C11" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F11" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506578</v>
       </c>
       <c r="G11" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H11" t="n">
         <v>155.2001605676189</v>
@@ -5039,22 +5039,22 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J11" t="n">
-        <v>415.9620235708704</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K11" t="n">
-        <v>694.9648458151291</v>
+        <v>1015.868804260582</v>
       </c>
       <c r="L11" t="n">
-        <v>1491.478882189181</v>
+        <v>1398.898238229689</v>
       </c>
       <c r="M11" t="n">
-        <v>2394.36076495262</v>
+        <v>1942.064603483816</v>
       </c>
       <c r="N11" t="n">
-        <v>3163.504782588269</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O11" t="n">
-        <v>3970.861728880871</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P11" t="n">
         <v>4303.667099681198</v>
@@ -5066,25 +5066,25 @@
         <v>4812.615767128013</v>
       </c>
       <c r="S11" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U11" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V11" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J12" t="n">
-        <v>168.145722662567</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K12" t="n">
         <v>369.1778315108234</v>
       </c>
       <c r="L12" t="n">
-        <v>685.8128519155886</v>
+        <v>685.8128519155887</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.667854191144</v>
+        <v>1436.023441513968</v>
       </c>
       <c r="N12" t="n">
         <v>1849.578923541333</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.25231534256025</v>
+        <v>449.6473316802841</v>
       </c>
       <c r="C13" t="n">
-        <v>96.25231534256025</v>
+        <v>449.6473316802841</v>
       </c>
       <c r="D13" t="n">
-        <v>96.25231534256025</v>
+        <v>299.5306922679483</v>
       </c>
       <c r="E13" t="n">
-        <v>96.25231534256025</v>
+        <v>299.5306922679483</v>
       </c>
       <c r="F13" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="G13" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="H13" t="n">
         <v>96.25231534256025</v>
@@ -5197,52 +5197,52 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J13" t="n">
-        <v>127.7084527208551</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K13" t="n">
-        <v>309.2373860905586</v>
+        <v>309.2373860905587</v>
       </c>
       <c r="L13" t="n">
-        <v>597.0583571824199</v>
+        <v>597.0583571824202</v>
       </c>
       <c r="M13" t="n">
-        <v>910.9143388153274</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N13" t="n">
-        <v>1222.742143129469</v>
+        <v>1222.74214312947</v>
       </c>
       <c r="O13" t="n">
         <v>1494.749295691747</v>
       </c>
       <c r="P13" t="n">
-        <v>1703.977723167556</v>
+        <v>1703.977723167557</v>
       </c>
       <c r="Q13" t="n">
         <v>1765.40156103574</v>
       </c>
       <c r="R13" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S13" t="n">
-        <v>1570.27854041029</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T13" t="n">
-        <v>1347.669225901793</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="U13" t="n">
-        <v>1089.136103626955</v>
+        <v>959.8570808607749</v>
       </c>
       <c r="V13" t="n">
-        <v>834.4516154210683</v>
+        <v>959.8570808607749</v>
       </c>
       <c r="W13" t="n">
-        <v>545.0344453841077</v>
+        <v>670.4399108238142</v>
       </c>
       <c r="X13" t="n">
-        <v>317.0448944860904</v>
+        <v>670.4399108238142</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.25231534256025</v>
+        <v>449.6473316802841</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C14" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E14" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F14" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506578</v>
       </c>
       <c r="G14" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H14" t="n">
-        <v>155.2001605676189</v>
+        <v>155.200160567619</v>
       </c>
       <c r="I14" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J14" t="n">
-        <v>248.5563745505174</v>
+        <v>248.5563745505175</v>
       </c>
       <c r="K14" t="n">
-        <v>527.5591967947762</v>
+        <v>619.6608637964437</v>
       </c>
       <c r="L14" t="n">
-        <v>1324.073233168828</v>
+        <v>1416.174900170496</v>
       </c>
       <c r="M14" t="n">
-        <v>2226.955115932267</v>
+        <v>2319.056782933935</v>
       </c>
       <c r="N14" t="n">
-        <v>2844.924061498501</v>
+        <v>3221.91624094862</v>
       </c>
       <c r="O14" t="n">
         <v>3652.281007791104</v>
       </c>
       <c r="P14" t="n">
-        <v>4303.667099681198</v>
+        <v>4303.667099681199</v>
       </c>
       <c r="Q14" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R14" t="n">
         <v>4812.615767128013</v>
@@ -5318,10 +5318,10 @@
         <v>3547.006120586686</v>
       </c>
       <c r="X14" t="n">
-        <v>3173.540362325607</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I15" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J15" t="n">
-        <v>168.145722662567</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K15" t="n">
-        <v>369.1778315108234</v>
+        <v>630.9984161532763</v>
       </c>
       <c r="L15" t="n">
-        <v>685.8128519155886</v>
+        <v>947.6334365580416</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.667854191144</v>
+        <v>1336.488438833597</v>
       </c>
       <c r="N15" t="n">
-        <v>1488.223336218509</v>
+        <v>1750.043920860962</v>
       </c>
       <c r="O15" t="n">
-        <v>2205.681599776197</v>
+        <v>2175.072228054497</v>
       </c>
       <c r="P15" t="n">
-        <v>2472.1523257779</v>
+        <v>2441.5429540562</v>
       </c>
       <c r="Q15" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R15" t="n">
         <v>2600.361752854265</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>518.561981992329</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="C16" t="n">
-        <v>349.6257990644222</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="D16" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="E16" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="G16" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="H16" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I16" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7084527208552</v>
+        <v>127.7084527208551</v>
       </c>
       <c r="K16" t="n">
-        <v>309.2373860905587</v>
+        <v>309.2373860905586</v>
       </c>
       <c r="L16" t="n">
-        <v>597.0583571824201</v>
+        <v>597.0583571824199</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9143388153276</v>
+        <v>910.9143388153274</v>
       </c>
       <c r="N16" t="n">
         <v>1222.742143129469</v>
       </c>
       <c r="O16" t="n">
-        <v>1494.749295691747</v>
+        <v>1494.749295691746</v>
       </c>
       <c r="P16" t="n">
-        <v>1703.977723167557</v>
+        <v>1703.977723167556</v>
       </c>
       <c r="Q16" t="n">
         <v>1765.401561035739</v>
       </c>
       <c r="R16" t="n">
-        <v>1666.703040729648</v>
+        <v>1666.703040729647</v>
       </c>
       <c r="S16" t="n">
         <v>1471.580020104198</v>
       </c>
       <c r="T16" t="n">
-        <v>1290.34964583116</v>
+        <v>1248.970705595701</v>
       </c>
       <c r="U16" t="n">
-        <v>1001.236021096233</v>
+        <v>959.8570808607737</v>
       </c>
       <c r="V16" t="n">
-        <v>746.5515328903464</v>
+        <v>705.1725926548868</v>
       </c>
       <c r="W16" t="n">
-        <v>746.5515328903464</v>
+        <v>415.7554226179261</v>
       </c>
       <c r="X16" t="n">
-        <v>518.561981992329</v>
+        <v>277.9007801728</v>
       </c>
       <c r="Y16" t="n">
-        <v>518.561981992329</v>
+        <v>277.9007801728</v>
       </c>
     </row>
     <row r="17">
@@ -5492,55 +5492,55 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C17" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.838673345262</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140267</v>
       </c>
       <c r="F17" t="n">
-        <v>872.7988173506587</v>
+        <v>872.798817350659</v>
       </c>
       <c r="G17" t="n">
-        <v>457.2866824420199</v>
+        <v>457.28668244202</v>
       </c>
       <c r="H17" t="n">
-        <v>155.2001605676189</v>
+        <v>155.200160567619</v>
       </c>
       <c r="I17" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J17" t="n">
-        <v>415.9620235708704</v>
+        <v>363.0313982420772</v>
       </c>
       <c r="K17" t="n">
-        <v>1015.868804260582</v>
+        <v>962.9381789317891</v>
       </c>
       <c r="L17" t="n">
-        <v>1812.382840634634</v>
+        <v>1759.452215305841</v>
       </c>
       <c r="M17" t="n">
-        <v>2270.246325240169</v>
+        <v>2217.315699911376</v>
       </c>
       <c r="N17" t="n">
-        <v>3173.105783254854</v>
+        <v>3120.175157926061</v>
       </c>
       <c r="O17" t="n">
-        <v>3927.532104218662</v>
+        <v>3927.532104218663</v>
       </c>
       <c r="P17" t="n">
-        <v>4578.918196108757</v>
+        <v>4578.918196108758</v>
       </c>
       <c r="Q17" t="n">
-        <v>4780.668422963387</v>
+        <v>4780.668422963388</v>
       </c>
       <c r="R17" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331643</v>
       </c>
       <c r="T17" t="n">
         <v>4484.403314706826</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>971.6630058531881</v>
+        <v>971.6630058531883</v>
       </c>
       <c r="C18" t="n">
-        <v>797.2099765720611</v>
+        <v>797.2099765720614</v>
       </c>
       <c r="D18" t="n">
-        <v>648.2755669108099</v>
+        <v>648.2755669108101</v>
       </c>
       <c r="E18" t="n">
-        <v>489.0381119053544</v>
+        <v>489.0381119053545</v>
       </c>
       <c r="F18" t="n">
-        <v>342.5035539322394</v>
+        <v>342.5035539322395</v>
       </c>
       <c r="G18" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818158</v>
       </c>
       <c r="H18" t="n">
         <v>113.1312674650428</v>
       </c>
       <c r="I18" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J18" t="n">
         <v>168.145722662567</v>
       </c>
       <c r="K18" t="n">
-        <v>369.1778315108234</v>
+        <v>630.9984161532761</v>
       </c>
       <c r="L18" t="n">
-        <v>1047.168439238413</v>
+        <v>947.6334365580414</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.023441513968</v>
+        <v>1336.488438833597</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.578923541333</v>
+        <v>1750.043920860962</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.681599776197</v>
+        <v>2205.681599776198</v>
       </c>
       <c r="P18" t="n">
-        <v>2472.1523257779</v>
+        <v>2472.152325777901</v>
       </c>
       <c r="Q18" t="n">
         <v>2600.361752854265</v>
@@ -5628,7 +5628,7 @@
         <v>2044.879606803687</v>
       </c>
       <c r="V18" t="n">
-        <v>1809.727498571944</v>
+        <v>1809.727498571945</v>
       </c>
       <c r="W18" t="n">
         <v>1555.490141843743</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>981.2650871417061</v>
+        <v>394.2820483372893</v>
       </c>
       <c r="C19" t="n">
-        <v>812.3289042137993</v>
+        <v>394.2820483372893</v>
       </c>
       <c r="D19" t="n">
-        <v>662.2122648014636</v>
+        <v>244.1654089249535</v>
       </c>
       <c r="E19" t="n">
-        <v>514.2991712190704</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="F19" t="n">
-        <v>367.4092237211601</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="G19" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="H19" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I19" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J19" t="n">
         <v>127.7084527208551</v>
       </c>
       <c r="K19" t="n">
-        <v>309.2373860905586</v>
+        <v>309.2373860905585</v>
       </c>
       <c r="L19" t="n">
-        <v>597.0583571824199</v>
+        <v>597.0583571824197</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9143388153274</v>
+        <v>910.9143388153271</v>
       </c>
       <c r="N19" t="n">
         <v>1222.742143129469</v>
       </c>
       <c r="O19" t="n">
-        <v>1494.749295691747</v>
+        <v>1494.749295691746</v>
       </c>
       <c r="P19" t="n">
         <v>1703.977723167556</v>
@@ -5695,28 +5695,28 @@
         <v>1765.401561035739</v>
       </c>
       <c r="R19" t="n">
-        <v>1765.401561035739</v>
+        <v>1666.703040729647</v>
       </c>
       <c r="S19" t="n">
-        <v>1765.401561035739</v>
+        <v>1666.703040729647</v>
       </c>
       <c r="T19" t="n">
-        <v>1765.401561035739</v>
+        <v>1444.09372622115</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.671808076684</v>
+        <v>1154.980101486223</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.671808076684</v>
+        <v>1093.337234102507</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.254638039723</v>
+        <v>803.9200640655465</v>
       </c>
       <c r="X19" t="n">
-        <v>981.2650871417061</v>
+        <v>575.9305131675291</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.2650871417061</v>
+        <v>575.9305131675291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C20" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.838673345262</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E20" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140267</v>
       </c>
       <c r="F20" t="n">
-        <v>872.7988173506585</v>
+        <v>872.798817350659</v>
       </c>
       <c r="G20" t="n">
-        <v>457.2866824420196</v>
+        <v>457.28668244202</v>
       </c>
       <c r="H20" t="n">
-        <v>155.2001605676189</v>
+        <v>155.200160567619</v>
       </c>
       <c r="I20" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J20" t="n">
-        <v>415.9620235708704</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K20" t="n">
         <v>1015.868804260582</v>
       </c>
       <c r="L20" t="n">
-        <v>1812.382840634634</v>
+        <v>1398.898238229689</v>
       </c>
       <c r="M20" t="n">
-        <v>2375.03805865168</v>
+        <v>2301.780120993128</v>
       </c>
       <c r="N20" t="n">
-        <v>2844.924061498501</v>
+        <v>3204.639579007813</v>
       </c>
       <c r="O20" t="n">
-        <v>3652.281007791104</v>
+        <v>3862.47284854441</v>
       </c>
       <c r="P20" t="n">
-        <v>4303.667099681198</v>
+        <v>4513.858940434505</v>
       </c>
       <c r="Q20" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R20" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S20" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331643</v>
       </c>
       <c r="T20" t="n">
         <v>4484.403314706826</v>
@@ -5795,7 +5795,7 @@
         <v>3173.540362325606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>971.6630058531881</v>
+        <v>971.6630058531883</v>
       </c>
       <c r="C21" t="n">
-        <v>797.2099765720611</v>
+        <v>797.2099765720614</v>
       </c>
       <c r="D21" t="n">
-        <v>648.2755669108099</v>
+        <v>648.2755669108101</v>
       </c>
       <c r="E21" t="n">
-        <v>489.0381119053544</v>
+        <v>489.0381119053545</v>
       </c>
       <c r="F21" t="n">
-        <v>342.5035539322394</v>
+        <v>342.5035539322395</v>
       </c>
       <c r="G21" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818158</v>
       </c>
       <c r="H21" t="n">
         <v>113.1312674650428</v>
       </c>
       <c r="I21" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J21" t="n">
         <v>168.145722662567</v>
@@ -5835,19 +5835,19 @@
         <v>369.1778315108234</v>
       </c>
       <c r="L21" t="n">
-        <v>1047.168439238413</v>
+        <v>685.8128519155886</v>
       </c>
       <c r="M21" t="n">
-        <v>1436.023441513968</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.578923541333</v>
+        <v>1849.578923541334</v>
       </c>
       <c r="O21" t="n">
-        <v>2205.681599776197</v>
+        <v>2205.681599776198</v>
       </c>
       <c r="P21" t="n">
-        <v>2472.1523257779</v>
+        <v>2472.152325777901</v>
       </c>
       <c r="Q21" t="n">
         <v>2600.361752854265</v>
@@ -5865,7 +5865,7 @@
         <v>2044.879606803687</v>
       </c>
       <c r="V21" t="n">
-        <v>1809.727498571944</v>
+        <v>1809.727498571945</v>
       </c>
       <c r="W21" t="n">
         <v>1555.490141843743</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>591.1728532231388</v>
+        <v>363.8556225180265</v>
       </c>
       <c r="C22" t="n">
-        <v>422.2366702952319</v>
+        <v>244.1654089249535</v>
       </c>
       <c r="D22" t="n">
-        <v>272.1200308828961</v>
+        <v>244.1654089249535</v>
       </c>
       <c r="E22" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="F22" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="G22" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="H22" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I22" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J22" t="n">
-        <v>127.7084527208552</v>
+        <v>127.7084527208551</v>
       </c>
       <c r="K22" t="n">
-        <v>309.2373860905587</v>
+        <v>309.2373860905586</v>
       </c>
       <c r="L22" t="n">
-        <v>597.05835718242</v>
+        <v>597.0583571824197</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9143388153275</v>
+        <v>910.9143388153273</v>
       </c>
       <c r="N22" t="n">
         <v>1222.742143129469</v>
@@ -5926,34 +5926,34 @@
         <v>1494.749295691747</v>
       </c>
       <c r="P22" t="n">
-        <v>1703.977723167557</v>
+        <v>1703.977723167556</v>
       </c>
       <c r="Q22" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035739</v>
       </c>
       <c r="R22" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S22" t="n">
-        <v>1765.40156103574</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T22" t="n">
-        <v>1765.40156103574</v>
+        <v>1248.970705595701</v>
       </c>
       <c r="U22" t="n">
-        <v>1476.287936300813</v>
+        <v>1248.970705595701</v>
       </c>
       <c r="V22" t="n">
-        <v>1221.603448094926</v>
+        <v>994.2862173898137</v>
       </c>
       <c r="W22" t="n">
-        <v>1221.603448094926</v>
+        <v>994.2862173898137</v>
       </c>
       <c r="X22" t="n">
-        <v>993.6138971969086</v>
+        <v>766.2966664917964</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.8213180533785</v>
+        <v>545.5040873482662</v>
       </c>
     </row>
     <row r="23">
@@ -5972,43 +5972,43 @@
         <v>1669.572974738511</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140267</v>
       </c>
       <c r="F23" t="n">
-        <v>872.798817350659</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G23" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H23" t="n">
-        <v>155.200160567619</v>
+        <v>155.2001605676192</v>
       </c>
       <c r="I23" t="n">
         <v>96.25231534256027</v>
       </c>
       <c r="J23" t="n">
-        <v>415.9620235708705</v>
+        <v>415.9620235708699</v>
       </c>
       <c r="K23" t="n">
-        <v>1015.868804260582</v>
+        <v>1015.868804260581</v>
       </c>
       <c r="L23" t="n">
-        <v>1812.382840634635</v>
+        <v>1812.382840634632</v>
       </c>
       <c r="M23" t="n">
-        <v>2375.038058651681</v>
+        <v>2270.246325240165</v>
       </c>
       <c r="N23" t="n">
-        <v>2844.924061498502</v>
+        <v>3173.105783254849</v>
       </c>
       <c r="O23" t="n">
-        <v>3652.281007791104</v>
+        <v>3652.281007791107</v>
       </c>
       <c r="P23" t="n">
-        <v>4303.667099681199</v>
+        <v>4303.667099681201</v>
       </c>
       <c r="Q23" t="n">
-        <v>4715.609167289135</v>
+        <v>4715.609167289136</v>
       </c>
       <c r="R23" t="n">
         <v>4812.615767128013</v>
@@ -6051,37 +6051,37 @@
         <v>648.2755669108101</v>
       </c>
       <c r="E24" t="n">
-        <v>489.0381119053545</v>
+        <v>489.0381119053546</v>
       </c>
       <c r="F24" t="n">
-        <v>342.5035539322395</v>
+        <v>342.5035539322396</v>
       </c>
       <c r="G24" t="n">
-        <v>205.9052016818158</v>
+        <v>205.9052016818159</v>
       </c>
       <c r="H24" t="n">
-        <v>113.1312674650428</v>
+        <v>113.131267465043</v>
       </c>
       <c r="I24" t="n">
         <v>96.25231534256027</v>
       </c>
       <c r="J24" t="n">
-        <v>168.145722662567</v>
+        <v>168.1457226625666</v>
       </c>
       <c r="K24" t="n">
-        <v>369.1778315108234</v>
+        <v>369.1778315108223</v>
       </c>
       <c r="L24" t="n">
-        <v>685.8128519155886</v>
+        <v>685.8128519155866</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.667854191144</v>
+        <v>1436.023441513972</v>
       </c>
       <c r="N24" t="n">
-        <v>1534.300782587796</v>
+        <v>1849.578923541336</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.40345882266</v>
+        <v>2205.681599776199</v>
       </c>
       <c r="P24" t="n">
         <v>2472.152325777901</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>710.1081787631064</v>
+        <v>187.7658717199054</v>
       </c>
       <c r="C25" t="n">
-        <v>541.1719958351995</v>
+        <v>187.7658717199054</v>
       </c>
       <c r="D25" t="n">
-        <v>391.0553564228638</v>
+        <v>187.7658717199054</v>
       </c>
       <c r="E25" t="n">
-        <v>243.1422628404706</v>
+        <v>187.7658717199054</v>
       </c>
       <c r="F25" t="n">
-        <v>96.25231534256027</v>
+        <v>187.7658717199054</v>
       </c>
       <c r="G25" t="n">
-        <v>96.25231534256027</v>
+        <v>187.7658717199054</v>
       </c>
       <c r="H25" t="n">
         <v>96.25231534256027</v>
@@ -6145,52 +6145,52 @@
         <v>96.25231534256027</v>
       </c>
       <c r="J25" t="n">
-        <v>127.7084527208552</v>
+        <v>127.7084527208549</v>
       </c>
       <c r="K25" t="n">
-        <v>309.2373860905587</v>
+        <v>309.2373860905581</v>
       </c>
       <c r="L25" t="n">
-        <v>597.05835718242</v>
+        <v>597.0583571824188</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9143388153275</v>
+        <v>910.9143388153259</v>
       </c>
       <c r="N25" t="n">
-        <v>1222.742143129469</v>
+        <v>1222.742143129467</v>
       </c>
       <c r="O25" t="n">
-        <v>1494.749295691747</v>
+        <v>1494.749295691744</v>
       </c>
       <c r="P25" t="n">
-        <v>1703.977723167557</v>
+        <v>1703.977723167553</v>
       </c>
       <c r="Q25" t="n">
-        <v>1765.401561035739</v>
+        <v>1765.401561035736</v>
       </c>
       <c r="R25" t="n">
-        <v>1765.401561035739</v>
+        <v>1666.703040729644</v>
       </c>
       <c r="S25" t="n">
-        <v>1765.401561035739</v>
+        <v>1471.580020104194</v>
       </c>
       <c r="T25" t="n">
-        <v>1656.34733567769</v>
+        <v>1248.970705595697</v>
       </c>
       <c r="U25" t="n">
-        <v>1367.233710942763</v>
+        <v>959.8570808607702</v>
       </c>
       <c r="V25" t="n">
-        <v>1112.549222736876</v>
+        <v>705.1725926548834</v>
       </c>
       <c r="W25" t="n">
-        <v>1112.549222736876</v>
+        <v>415.7554226179228</v>
       </c>
       <c r="X25" t="n">
-        <v>1112.549222736876</v>
+        <v>187.7658717199054</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.7566435933461</v>
+        <v>187.7658717199054</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1283.784722140265</v>
       </c>
       <c r="F26" t="n">
-        <v>872.7988173506578</v>
+        <v>872.7988173506574</v>
       </c>
       <c r="G26" t="n">
         <v>457.2866824420189</v>
       </c>
       <c r="H26" t="n">
-        <v>155.200160567619</v>
+        <v>155.2001605676187</v>
       </c>
       <c r="I26" t="n">
         <v>96.25231534256025</v>
       </c>
       <c r="J26" t="n">
-        <v>415.9620235708704</v>
+        <v>248.5563745505174</v>
       </c>
       <c r="K26" t="n">
-        <v>1015.868804260582</v>
+        <v>527.5591967947762</v>
       </c>
       <c r="L26" t="n">
-        <v>1398.898238229689</v>
+        <v>1324.073233168828</v>
       </c>
       <c r="M26" t="n">
-        <v>2301.780120993127</v>
+        <v>1942.064603483816</v>
       </c>
       <c r="N26" t="n">
-        <v>3204.639579007812</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O26" t="n">
-        <v>4011.996525300415</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P26" t="n">
-        <v>4344.801896100742</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q26" t="n">
-        <v>4756.743963708678</v>
+        <v>4715.609167289134</v>
       </c>
       <c r="R26" t="n">
         <v>4812.615767128013</v>
@@ -6303,28 +6303,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J27" t="n">
-        <v>292.9758476495717</v>
+        <v>168.145722662567</v>
       </c>
       <c r="K27" t="n">
-        <v>494.007956497828</v>
+        <v>369.1778315108234</v>
       </c>
       <c r="L27" t="n">
-        <v>810.6429769025933</v>
+        <v>1016.559067516713</v>
       </c>
       <c r="M27" t="n">
-        <v>1199.497979178148</v>
+        <v>1405.414069792268</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.578923541333</v>
+        <v>1818.969551819633</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.681599776197</v>
+        <v>2175.072228054497</v>
       </c>
       <c r="P27" t="n">
-        <v>2472.1523257779</v>
+        <v>2441.5429540562</v>
       </c>
       <c r="Q27" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R27" t="n">
         <v>2600.361752854265</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.2483836602968</v>
+        <v>581.0016559219339</v>
       </c>
       <c r="C28" t="n">
-        <v>494.3122007323899</v>
+        <v>412.065472994027</v>
       </c>
       <c r="D28" t="n">
-        <v>494.3122007323899</v>
+        <v>412.065472994027</v>
       </c>
       <c r="E28" t="n">
-        <v>346.3991071499968</v>
+        <v>264.1523794116339</v>
       </c>
       <c r="F28" t="n">
-        <v>199.5091596520865</v>
+        <v>264.1523794116339</v>
       </c>
       <c r="G28" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H28" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I28" t="n">
         <v>96.25231534256025</v>
       </c>
       <c r="J28" t="n">
-        <v>127.7084527208551</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K28" t="n">
-        <v>309.2373860905586</v>
+        <v>309.2373860905587</v>
       </c>
       <c r="L28" t="n">
-        <v>597.0583571824199</v>
+        <v>597.05835718242</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9143388153274</v>
+        <v>910.9143388153275</v>
       </c>
       <c r="N28" t="n">
         <v>1222.742143129469</v>
@@ -6400,7 +6400,7 @@
         <v>1494.749295691747</v>
       </c>
       <c r="P28" t="n">
-        <v>1703.977723167556</v>
+        <v>1703.977723167557</v>
       </c>
       <c r="Q28" t="n">
         <v>1765.401561035739</v>
@@ -6409,25 +6409,25 @@
         <v>1666.703040729648</v>
       </c>
       <c r="S28" t="n">
-        <v>1666.703040729648</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T28" t="n">
-        <v>1666.703040729648</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="U28" t="n">
-        <v>1377.589415994721</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="V28" t="n">
-        <v>1377.589415994721</v>
+        <v>994.2862173898149</v>
       </c>
       <c r="W28" t="n">
-        <v>1293.678978532084</v>
+        <v>990.639671650191</v>
       </c>
       <c r="X28" t="n">
-        <v>1065.689427634067</v>
+        <v>762.6501207521736</v>
       </c>
       <c r="Y28" t="n">
-        <v>844.8968484905365</v>
+        <v>762.6501207521736</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2396.801190285729</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C29" t="n">
-        <v>2027.838673345318</v>
+        <v>2027.838673345261</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.572974738567</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.784722140323</v>
+        <v>1283.784722140266</v>
       </c>
       <c r="F29" t="n">
-        <v>872.7988173507154</v>
+        <v>872.7988173506585</v>
       </c>
       <c r="G29" t="n">
-        <v>457.2866824420765</v>
+        <v>457.2866824420199</v>
       </c>
       <c r="H29" t="n">
-        <v>155.2001605676755</v>
+        <v>155.2001605676189</v>
       </c>
       <c r="I29" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J29" t="n">
-        <v>415.9620235708716</v>
+        <v>415.9620235708704</v>
       </c>
       <c r="K29" t="n">
-        <v>938.2415848862673</v>
+        <v>1015.868804260582</v>
       </c>
       <c r="L29" t="n">
-        <v>1734.755621260319</v>
+        <v>1812.382840634634</v>
       </c>
       <c r="M29" t="n">
-        <v>2637.637504023758</v>
+        <v>2715.264723398073</v>
       </c>
       <c r="N29" t="n">
-        <v>3540.496962038443</v>
+        <v>3221.916240948619</v>
       </c>
       <c r="O29" t="n">
-        <v>3970.861728880928</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P29" t="n">
-        <v>4303.667099681255</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q29" t="n">
-        <v>4715.609167289191</v>
+        <v>4715.609167289134</v>
       </c>
       <c r="R29" t="n">
-        <v>4812.615767128069</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S29" t="n">
-        <v>4692.305782331699</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.403314706882</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U29" t="n">
-        <v>4230.837663200427</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V29" t="n">
-        <v>3899.774775856857</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.006120586742</v>
+        <v>3547.006120586686</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.540362325662</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.401030349851</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>971.6630058531892</v>
+        <v>971.6630058531881</v>
       </c>
       <c r="C30" t="n">
-        <v>797.2099765720623</v>
+        <v>797.2099765720611</v>
       </c>
       <c r="D30" t="n">
-        <v>648.275566910811</v>
+        <v>648.2755669108099</v>
       </c>
       <c r="E30" t="n">
-        <v>489.0381119053555</v>
+        <v>489.0381119053544</v>
       </c>
       <c r="F30" t="n">
-        <v>342.5035539322405</v>
+        <v>342.5035539322394</v>
       </c>
       <c r="G30" t="n">
-        <v>205.9052016818168</v>
+        <v>205.9052016818157</v>
       </c>
       <c r="H30" t="n">
-        <v>113.1312674650439</v>
+        <v>113.1312674650428</v>
       </c>
       <c r="I30" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J30" t="n">
-        <v>292.9758476495729</v>
+        <v>168.145722662567</v>
       </c>
       <c r="K30" t="n">
-        <v>494.0079564978292</v>
+        <v>369.1778315108234</v>
       </c>
       <c r="L30" t="n">
-        <v>810.6429769025945</v>
+        <v>685.8128519155886</v>
       </c>
       <c r="M30" t="n">
-        <v>1199.49797917815</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N30" t="n">
-        <v>1613.053461205515</v>
+        <v>1849.578923541333</v>
       </c>
       <c r="O30" t="n">
-        <v>1997.705084917708</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P30" t="n">
-        <v>2264.175810919411</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2600.361752854266</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R30" t="n">
-        <v>2600.361752854266</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="S30" t="n">
-        <v>2466.554162085983</v>
+        <v>2466.554162085982</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.962930779999</v>
+        <v>2272.962930779998</v>
       </c>
       <c r="U30" t="n">
-        <v>2044.879606803688</v>
+        <v>2044.879606803687</v>
       </c>
       <c r="V30" t="n">
-        <v>1809.727498571945</v>
+        <v>1809.727498571944</v>
       </c>
       <c r="W30" t="n">
-        <v>1555.490141843744</v>
+        <v>1555.490141843743</v>
       </c>
       <c r="X30" t="n">
-        <v>1347.638641638211</v>
+        <v>1347.63864163821</v>
       </c>
       <c r="Y30" t="n">
-        <v>1139.878342873257</v>
+        <v>1139.878342873256</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431.0467137781047</v>
+        <v>244.1654089249532</v>
       </c>
       <c r="C31" t="n">
-        <v>262.1105308501978</v>
+        <v>244.1654089249532</v>
       </c>
       <c r="D31" t="n">
-        <v>111.9938914378621</v>
+        <v>244.1654089249533</v>
       </c>
       <c r="E31" t="n">
-        <v>111.9938914378621</v>
+        <v>96.25231534256022</v>
       </c>
       <c r="F31" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G31" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H31" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I31" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J31" t="n">
-        <v>127.7084527208562</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K31" t="n">
-        <v>309.2373860905597</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L31" t="n">
-        <v>597.058357182421</v>
+        <v>597.0583571824202</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9143388153285</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N31" t="n">
         <v>1222.74214312947</v>
       </c>
       <c r="O31" t="n">
-        <v>1494.749295691748</v>
+        <v>1494.749295691747</v>
       </c>
       <c r="P31" t="n">
-        <v>1703.977723167558</v>
+        <v>1703.977723167557</v>
       </c>
       <c r="Q31" t="n">
         <v>1765.40156103574</v>
       </c>
       <c r="R31" t="n">
-        <v>1666.703040729649</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S31" t="n">
-        <v>1666.703040729649</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="T31" t="n">
-        <v>1666.703040729649</v>
+        <v>1444.093726221152</v>
       </c>
       <c r="U31" t="n">
-        <v>1377.589415994722</v>
+        <v>1154.980101486225</v>
       </c>
       <c r="V31" t="n">
-        <v>1122.904927788835</v>
+        <v>943.2205946901706</v>
       </c>
       <c r="W31" t="n">
-        <v>833.4877577518746</v>
+        <v>653.8034246532101</v>
       </c>
       <c r="X31" t="n">
-        <v>833.4877577518746</v>
+        <v>425.8138737551928</v>
       </c>
       <c r="Y31" t="n">
-        <v>612.6951786083445</v>
+        <v>425.8138737551928</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2396.801190285674</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C32" t="n">
-        <v>2027.838673345262</v>
+        <v>2027.838673345261</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.572974738512</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E32" t="n">
-        <v>1283.784722140267</v>
+        <v>1283.784722140266</v>
       </c>
       <c r="F32" t="n">
-        <v>872.7988173506599</v>
+        <v>872.7988173506585</v>
       </c>
       <c r="G32" t="n">
-        <v>457.2866824420211</v>
+        <v>457.2866824420199</v>
       </c>
       <c r="H32" t="n">
-        <v>155.2001605676201</v>
+        <v>155.2001605676189</v>
       </c>
       <c r="I32" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J32" t="n">
-        <v>340.6580415522407</v>
+        <v>377.1504645070123</v>
       </c>
       <c r="K32" t="n">
-        <v>619.6608637964995</v>
+        <v>656.153286751271</v>
       </c>
       <c r="L32" t="n">
-        <v>1416.174900170552</v>
+        <v>1039.182720720377</v>
       </c>
       <c r="M32" t="n">
-        <v>2319.05678293399</v>
+        <v>1942.064603483816</v>
       </c>
       <c r="N32" t="n">
-        <v>3221.916240948675</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O32" t="n">
-        <v>3652.28100779116</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P32" t="n">
-        <v>4303.667099681255</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q32" t="n">
-        <v>4715.609167289191</v>
+        <v>4715.609167289134</v>
       </c>
       <c r="R32" t="n">
-        <v>4812.615767128069</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S32" t="n">
-        <v>4692.305782331699</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T32" t="n">
-        <v>4484.403314706882</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U32" t="n">
-        <v>4230.837663200427</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V32" t="n">
-        <v>3899.774775856857</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.006120586742</v>
+        <v>3547.006120586686</v>
       </c>
       <c r="X32" t="n">
-        <v>3173.540362325607</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2783.401030349796</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>971.6630058531892</v>
+        <v>971.6630058531881</v>
       </c>
       <c r="C33" t="n">
-        <v>797.2099765720623</v>
+        <v>797.2099765720611</v>
       </c>
       <c r="D33" t="n">
-        <v>648.275566910811</v>
+        <v>648.2755669108099</v>
       </c>
       <c r="E33" t="n">
-        <v>489.0381119053555</v>
+        <v>489.0381119053544</v>
       </c>
       <c r="F33" t="n">
-        <v>342.5035539322405</v>
+        <v>342.5035539322394</v>
       </c>
       <c r="G33" t="n">
-        <v>205.9052016818168</v>
+        <v>205.9052016818157</v>
       </c>
       <c r="H33" t="n">
-        <v>113.1312674650439</v>
+        <v>113.1312674650428</v>
       </c>
       <c r="I33" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J33" t="n">
-        <v>168.1457226625681</v>
+        <v>168.145722662567</v>
       </c>
       <c r="K33" t="n">
-        <v>630.9984161532773</v>
+        <v>369.1778315108234</v>
       </c>
       <c r="L33" t="n">
-        <v>1047.168439238415</v>
+        <v>685.8128519155886</v>
       </c>
       <c r="M33" t="n">
-        <v>1436.02344151397</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.578923541335</v>
+        <v>1488.223336218509</v>
       </c>
       <c r="O33" t="n">
-        <v>2205.681599776199</v>
+        <v>1844.326012453373</v>
       </c>
       <c r="P33" t="n">
-        <v>2472.152325777902</v>
+        <v>2426.074879408614</v>
       </c>
       <c r="Q33" t="n">
-        <v>2600.361752854266</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R33" t="n">
-        <v>2600.361752854266</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="S33" t="n">
-        <v>2466.554162085983</v>
+        <v>2466.554162085982</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.962930779999</v>
+        <v>2272.962930779998</v>
       </c>
       <c r="U33" t="n">
-        <v>2044.879606803688</v>
+        <v>2044.879606803687</v>
       </c>
       <c r="V33" t="n">
-        <v>1809.727498571945</v>
+        <v>1809.727498571944</v>
       </c>
       <c r="W33" t="n">
-        <v>1555.490141843744</v>
+        <v>1555.490141843743</v>
       </c>
       <c r="X33" t="n">
-        <v>1347.638641638211</v>
+        <v>1347.63864163821</v>
       </c>
       <c r="Y33" t="n">
-        <v>1139.878342873257</v>
+        <v>1139.878342873256</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>688.4553574293171</v>
+        <v>609.1443273896234</v>
       </c>
       <c r="C34" t="n">
-        <v>544.5011076300735</v>
+        <v>609.1443273896234</v>
       </c>
       <c r="D34" t="n">
-        <v>419.3664013464011</v>
+        <v>484.0096211059501</v>
       </c>
       <c r="E34" t="n">
-        <v>296.4352408926713</v>
+        <v>361.0784606522194</v>
       </c>
       <c r="F34" t="n">
-        <v>174.5272265234242</v>
+        <v>239.1704462829715</v>
       </c>
       <c r="G34" t="n">
-        <v>174.5272265234242</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5272265234242</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I34" t="n">
-        <v>96.25231534256137</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J34" t="n">
-        <v>152.1932453802592</v>
+        <v>152.1932453802572</v>
       </c>
       <c r="K34" t="n">
-        <v>358.2069714093656</v>
+        <v>358.2069714093627</v>
       </c>
       <c r="L34" t="n">
-        <v>670.5127351606297</v>
+        <v>670.5127351606261</v>
       </c>
       <c r="M34" t="n">
-        <v>1008.85350945294</v>
+        <v>1008.853509452936</v>
       </c>
       <c r="N34" t="n">
-        <v>1345.166106426485</v>
+        <v>1345.16610642648</v>
       </c>
       <c r="O34" t="n">
-        <v>1641.658051648165</v>
+        <v>1641.658051648159</v>
       </c>
       <c r="P34" t="n">
-        <v>1875.371271783378</v>
+        <v>1875.371271783371</v>
       </c>
       <c r="Q34" t="n">
-        <v>1961.279902310964</v>
+        <v>1961.279902310956</v>
       </c>
       <c r="R34" t="n">
-        <v>1961.279902310964</v>
+        <v>1887.563315133527</v>
       </c>
       <c r="S34" t="n">
-        <v>1961.279902310964</v>
+        <v>1717.42222763674</v>
       </c>
       <c r="T34" t="n">
-        <v>1961.279902310964</v>
+        <v>1519.794846256905</v>
       </c>
       <c r="U34" t="n">
-        <v>1738.077944900635</v>
+        <v>1255.663154650641</v>
       </c>
       <c r="V34" t="n">
-        <v>1508.375389823412</v>
+        <v>1025.960599573416</v>
       </c>
       <c r="W34" t="n">
-        <v>1243.940152915114</v>
+        <v>1025.960599573416</v>
       </c>
       <c r="X34" t="n">
-        <v>1040.93253514576</v>
+        <v>822.952981804061</v>
       </c>
       <c r="Y34" t="n">
-        <v>845.1218891308936</v>
+        <v>765.8108590912007</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1984.953510602832</v>
+        <v>1984.953510602831</v>
       </c>
       <c r="C35" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803367</v>
       </c>
       <c r="D35" t="n">
         <v>1370.465721337564</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880267</v>
       </c>
       <c r="F35" t="n">
         <v>686.4319902316074</v>
       </c>
       <c r="G35" t="n">
-        <v>327.290068463916</v>
+        <v>327.2900684639164</v>
       </c>
       <c r="H35" t="n">
-        <v>81.57375973046305</v>
+        <v>81.573759730463</v>
       </c>
       <c r="I35" t="n">
         <v>78.99612764635184</v>
@@ -6938,31 +6938,31 @@
         <v>398.7058358746621</v>
       </c>
       <c r="K35" t="n">
-        <v>998.612616564374</v>
+        <v>677.7086581189208</v>
       </c>
       <c r="L35" t="n">
-        <v>1381.64205053348</v>
+        <v>1208.575754271285</v>
       </c>
       <c r="M35" t="n">
-        <v>1839.505535139015</v>
+        <v>1666.439238876819</v>
       </c>
       <c r="N35" t="n">
-        <v>2742.3649931537</v>
+        <v>2569.298696891504</v>
       </c>
       <c r="O35" t="n">
-        <v>3173.111599744704</v>
+        <v>2999.663463733989</v>
       </c>
       <c r="P35" t="n">
-        <v>3505.916970545031</v>
+        <v>3651.049555624083</v>
       </c>
       <c r="Q35" t="n">
-        <v>3917.859038152967</v>
+        <v>3852.799782478713</v>
       </c>
       <c r="R35" t="n">
         <v>3949.806382317592</v>
       </c>
       <c r="S35" t="n">
-        <v>3885.866610662169</v>
+        <v>3885.866610662168</v>
       </c>
       <c r="T35" t="n">
         <v>3734.334356178299</v>
@@ -6974,13 +6974,13 @@
         <v>3262.446243610169</v>
       </c>
       <c r="W35" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481002</v>
       </c>
       <c r="X35" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.95225636087</v>
       </c>
       <c r="Y35" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526005</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.3881255139997</v>
+        <v>717.3881255139995</v>
       </c>
       <c r="C37" t="n">
-        <v>604.8221557270404</v>
+        <v>604.8221557270401</v>
       </c>
       <c r="D37" t="n">
-        <v>511.0757294556521</v>
+        <v>511.075729455652</v>
       </c>
       <c r="E37" t="n">
-        <v>419.5328490142065</v>
+        <v>419.5328490142064</v>
       </c>
       <c r="F37" t="n">
-        <v>329.0131146572436</v>
+        <v>329.0131146572435</v>
       </c>
       <c r="G37" t="n">
         <v>217.4832637291174</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8827588149306</v>
+        <v>125.8827588149305</v>
       </c>
       <c r="I37" t="n">
         <v>78.99612764635184</v>
@@ -7096,7 +7096,7 @@
         <v>165.7007109240894</v>
       </c>
       <c r="K37" t="n">
-        <v>402.4780901932355</v>
+        <v>402.4780901932356</v>
       </c>
       <c r="L37" t="n">
         <v>745.5475071845394</v>
@@ -7111,34 +7111,34 @@
         <v>1808.983783392194</v>
       </c>
       <c r="P37" t="n">
-        <v>2073.460656767446</v>
+        <v>2073.460656767447</v>
       </c>
       <c r="Q37" t="n">
-        <v>2190.132940535072</v>
+        <v>2190.132940535073</v>
       </c>
       <c r="R37" t="n">
-        <v>2147.804633369928</v>
+        <v>2147.804633369929</v>
       </c>
       <c r="S37" t="n">
-        <v>2009.051825885425</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T37" t="n">
-        <v>1842.812724517876</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U37" t="n">
         <v>1610.069312923897</v>
       </c>
       <c r="V37" t="n">
-        <v>1411.755037858958</v>
+        <v>1411.755037858957</v>
       </c>
       <c r="W37" t="n">
         <v>1178.708080962944</v>
       </c>
       <c r="X37" t="n">
-        <v>1007.088743205875</v>
+        <v>1007.088743205874</v>
       </c>
       <c r="Y37" t="n">
-        <v>842.666377203292</v>
+        <v>842.6663772032917</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>1984.953510602832</v>
       </c>
       <c r="C38" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803367</v>
       </c>
       <c r="D38" t="n">
-        <v>1370.465721337565</v>
+        <v>1370.465721337564</v>
       </c>
       <c r="E38" t="n">
         <v>1041.047681880268</v>
       </c>
       <c r="F38" t="n">
-        <v>686.4319902316081</v>
+        <v>686.4319902316078</v>
       </c>
       <c r="G38" t="n">
-        <v>327.2900684639166</v>
+        <v>327.2900684639164</v>
       </c>
       <c r="H38" t="n">
-        <v>81.57375973046307</v>
+        <v>81.57375973046295</v>
       </c>
       <c r="I38" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J38" t="n">
         <v>231.300186854309</v>
       </c>
       <c r="K38" t="n">
-        <v>510.3030090985678</v>
+        <v>510.3030090985677</v>
       </c>
       <c r="L38" t="n">
-        <v>893.332443067674</v>
+        <v>893.3324430676739</v>
       </c>
       <c r="M38" t="n">
-        <v>1351.195927673208</v>
+        <v>1796.214325831113</v>
       </c>
       <c r="N38" t="n">
-        <v>2254.055385687893</v>
+        <v>2699.073783845798</v>
       </c>
       <c r="O38" t="n">
-        <v>2854.530878654936</v>
+        <v>3129.438550688282</v>
       </c>
       <c r="P38" t="n">
-        <v>3505.916970545031</v>
+        <v>3462.243921488609</v>
       </c>
       <c r="Q38" t="n">
-        <v>3917.859038152967</v>
+        <v>3852.799782478713</v>
       </c>
       <c r="R38" t="n">
-        <v>3949.806382317592</v>
+        <v>3949.806382317591</v>
       </c>
       <c r="S38" t="n">
-        <v>3885.866610662169</v>
+        <v>3885.866610662168</v>
       </c>
       <c r="T38" t="n">
-        <v>3734.3343561783</v>
+        <v>3734.334356178299</v>
       </c>
       <c r="U38" t="n">
-        <v>3537.138917812793</v>
+        <v>3537.138917812792</v>
       </c>
       <c r="V38" t="n">
-        <v>3262.44624361017</v>
+        <v>3262.446243610168</v>
       </c>
       <c r="W38" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481002</v>
       </c>
       <c r="X38" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.95225636087</v>
       </c>
       <c r="Y38" t="n">
         <v>2315.183137526006</v>
@@ -7245,10 +7245,10 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H39" t="n">
-        <v>95.87507976883438</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I39" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J39" t="n">
         <v>150.8895349663586</v>
@@ -7263,16 +7263,16 @@
         <v>1057.411666494935</v>
       </c>
       <c r="N39" t="n">
-        <v>1801.713364123425</v>
+        <v>1470.9671485223</v>
       </c>
       <c r="O39" t="n">
-        <v>2157.816040358289</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P39" t="n">
-        <v>2424.286766359992</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.496193436356</v>
+        <v>2583.105565158056</v>
       </c>
       <c r="R39" t="n">
         <v>2583.105565158056</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.388125514</v>
+        <v>717.3881255140002</v>
       </c>
       <c r="C40" t="n">
-        <v>604.8221557270405</v>
+        <v>604.8221557270408</v>
       </c>
       <c r="D40" t="n">
-        <v>511.0757294556522</v>
+        <v>511.0757294556527</v>
       </c>
       <c r="E40" t="n">
-        <v>419.5328490142066</v>
+        <v>419.5328490142062</v>
       </c>
       <c r="F40" t="n">
-        <v>329.0131146572437</v>
+        <v>329.0131146572434</v>
       </c>
       <c r="G40" t="n">
-        <v>217.4832637291175</v>
+        <v>217.4832637291173</v>
       </c>
       <c r="H40" t="n">
-        <v>125.8827588149306</v>
+        <v>125.8827588149305</v>
       </c>
       <c r="I40" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J40" t="n">
         <v>165.7007109240894</v>
       </c>
       <c r="K40" t="n">
-        <v>402.4780901932355</v>
+        <v>402.4780901932356</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5475071845394</v>
+        <v>745.5475071845399</v>
       </c>
       <c r="M40" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N40" t="n">
-        <v>1481.728184930474</v>
+        <v>1481.728184930475</v>
       </c>
       <c r="O40" t="n">
-        <v>1808.983783392194</v>
+        <v>1808.983783392195</v>
       </c>
       <c r="P40" t="n">
-        <v>2073.460656767446</v>
+        <v>2073.460656767447</v>
       </c>
       <c r="Q40" t="n">
-        <v>2190.132940535072</v>
+        <v>2190.132940535073</v>
       </c>
       <c r="R40" t="n">
-        <v>2147.804633369928</v>
+        <v>2147.804633369929</v>
       </c>
       <c r="S40" t="n">
-        <v>2009.051825885425</v>
+        <v>2009.051825885427</v>
       </c>
       <c r="T40" t="n">
-        <v>1842.812724517876</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U40" t="n">
-        <v>1610.069312923897</v>
+        <v>1610.069312923898</v>
       </c>
       <c r="V40" t="n">
-        <v>1411.755037858958</v>
+        <v>1411.755037858959</v>
       </c>
       <c r="W40" t="n">
-        <v>1178.708080962945</v>
+        <v>1178.708080962946</v>
       </c>
       <c r="X40" t="n">
-        <v>1007.088743205875</v>
+        <v>1007.088743205876</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.6663772032922</v>
+        <v>842.6663772032923</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1984.953510602832</v>
+        <v>1984.95351060283</v>
       </c>
       <c r="C41" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803366</v>
       </c>
       <c r="D41" t="n">
-        <v>1370.465721337565</v>
+        <v>1370.465721337563</v>
       </c>
       <c r="E41" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880266</v>
       </c>
       <c r="F41" t="n">
-        <v>686.4319902316081</v>
+        <v>686.4319902316063</v>
       </c>
       <c r="G41" t="n">
-        <v>327.2900684639166</v>
+        <v>327.2900684639164</v>
       </c>
       <c r="H41" t="n">
-        <v>81.57375973046307</v>
+        <v>81.57375973046301</v>
       </c>
       <c r="I41" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J41" t="n">
-        <v>398.7058358746621</v>
+        <v>231.300186854309</v>
       </c>
       <c r="K41" t="n">
-        <v>677.7086581189208</v>
+        <v>510.3030090985677</v>
       </c>
       <c r="L41" t="n">
-        <v>1060.738092088027</v>
+        <v>1005.031710831881</v>
       </c>
       <c r="M41" t="n">
-        <v>1518.601576693562</v>
+        <v>1462.895195437415</v>
       </c>
       <c r="N41" t="n">
-        <v>1988.487579540382</v>
+        <v>2365.7546534521</v>
       </c>
       <c r="O41" t="n">
-        <v>2795.844525832985</v>
+        <v>3173.111599744703</v>
       </c>
       <c r="P41" t="n">
-        <v>3447.230617723079</v>
+        <v>3505.916970545029</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.799782478714</v>
+        <v>3917.859038152965</v>
       </c>
       <c r="R41" t="n">
-        <v>3949.806382317592</v>
+        <v>3949.806382317591</v>
       </c>
       <c r="S41" t="n">
-        <v>3885.866610662169</v>
+        <v>3885.866610662168</v>
       </c>
       <c r="T41" t="n">
-        <v>3734.3343561783</v>
+        <v>3734.334356178298</v>
       </c>
       <c r="U41" t="n">
-        <v>3537.138917812793</v>
+        <v>3537.138917812791</v>
       </c>
       <c r="V41" t="n">
-        <v>3262.44624361017</v>
+        <v>3262.446243610168</v>
       </c>
       <c r="W41" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481001</v>
       </c>
       <c r="X41" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.952256360869</v>
       </c>
       <c r="Y41" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526004</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H42" t="n">
-        <v>95.87507976883438</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I42" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J42" t="n">
         <v>150.8895349663586</v>
@@ -7497,19 +7497,19 @@
         <v>668.5566642193801</v>
       </c>
       <c r="M42" t="n">
-        <v>1418.76725381776</v>
+        <v>1057.411666494935</v>
       </c>
       <c r="N42" t="n">
-        <v>1832.322735845125</v>
+        <v>1470.9671485223</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.425412079989</v>
+        <v>1949.839525499798</v>
       </c>
       <c r="P42" t="n">
-        <v>2454.896138081692</v>
+        <v>2216.310251501501</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.105565158056</v>
+        <v>2552.496193436356</v>
       </c>
       <c r="R42" t="n">
         <v>2583.105565158056</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.3881255139988</v>
+        <v>717.3881255139995</v>
       </c>
       <c r="C43" t="n">
-        <v>604.8221557270393</v>
+        <v>604.8221557270401</v>
       </c>
       <c r="D43" t="n">
-        <v>511.0757294556511</v>
+        <v>511.075729455652</v>
       </c>
       <c r="E43" t="n">
-        <v>419.5328490142055</v>
+        <v>419.5328490142064</v>
       </c>
       <c r="F43" t="n">
-        <v>329.0131146572426</v>
+        <v>329.0131146572435</v>
       </c>
       <c r="G43" t="n">
-        <v>217.4832637291164</v>
+        <v>217.4832637291175</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8827588149306</v>
+        <v>125.8827588149305</v>
       </c>
       <c r="I43" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J43" t="n">
         <v>165.7007109240894</v>
@@ -7576,7 +7576,7 @@
         <v>745.5475071845394</v>
       </c>
       <c r="M43" t="n">
-        <v>1114.65193471689</v>
+        <v>1114.651934716889</v>
       </c>
       <c r="N43" t="n">
         <v>1481.728184930474</v>
@@ -7594,13 +7594,13 @@
         <v>2147.804633369928</v>
       </c>
       <c r="S43" t="n">
-        <v>2009.051825885425</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T43" t="n">
         <v>1842.812724517876</v>
       </c>
       <c r="U43" t="n">
-        <v>1610.069312923896</v>
+        <v>1610.069312923897</v>
       </c>
       <c r="V43" t="n">
         <v>1411.755037858957</v>
@@ -7612,7 +7612,7 @@
         <v>1007.088743205874</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.6663772032911</v>
+        <v>842.6663772032917</v>
       </c>
     </row>
     <row r="44">
@@ -7628,64 +7628,64 @@
         <v>1672.361206803368</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.465721337564</v>
+        <v>1370.465721337565</v>
       </c>
       <c r="E44" t="n">
         <v>1041.047681880268</v>
       </c>
       <c r="F44" t="n">
-        <v>686.4319902316076</v>
+        <v>686.4319902316079</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2900684639162</v>
+        <v>327.2900684639165</v>
       </c>
       <c r="H44" t="n">
-        <v>81.5737597304631</v>
+        <v>81.57375973046302</v>
       </c>
       <c r="I44" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J44" t="n">
-        <v>398.7058358746621</v>
+        <v>231.300186854309</v>
       </c>
       <c r="K44" t="n">
-        <v>998.612616564374</v>
+        <v>634.8433323117903</v>
       </c>
       <c r="L44" t="n">
-        <v>1795.126652938426</v>
+        <v>1431.357368685842</v>
       </c>
       <c r="M44" t="n">
-        <v>2252.99013754396</v>
+        <v>1889.220853291377</v>
       </c>
       <c r="N44" t="n">
-        <v>2742.746832902219</v>
+        <v>2359.106856138198</v>
       </c>
       <c r="O44" t="n">
-        <v>3173.111599744704</v>
+        <v>2789.471622980682</v>
       </c>
       <c r="P44" t="n">
-        <v>3505.916970545031</v>
+        <v>3440.857714870777</v>
       </c>
       <c r="Q44" t="n">
-        <v>3917.859038152967</v>
+        <v>3852.799782478713</v>
       </c>
       <c r="R44" t="n">
-        <v>3949.806382317592</v>
+        <v>3949.806382317591</v>
       </c>
       <c r="S44" t="n">
-        <v>3885.866610662169</v>
+        <v>3885.866610662168</v>
       </c>
       <c r="T44" t="n">
         <v>3734.334356178299</v>
       </c>
       <c r="U44" t="n">
-        <v>3537.138917812793</v>
+        <v>3537.138917812792</v>
       </c>
       <c r="V44" t="n">
-        <v>3262.446243610169</v>
+        <v>3262.446243610168</v>
       </c>
       <c r="W44" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481002</v>
       </c>
       <c r="X44" t="n">
         <v>2648.952256360871</v>
@@ -7719,10 +7719,10 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H45" t="n">
-        <v>95.87507976883438</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I45" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J45" t="n">
         <v>150.8895349663586</v>
@@ -7731,22 +7731,22 @@
         <v>351.9216438146149</v>
       </c>
       <c r="L45" t="n">
-        <v>668.5566642193801</v>
+        <v>1029.912251542205</v>
       </c>
       <c r="M45" t="n">
-        <v>1057.411666494935</v>
+        <v>1418.76725381776</v>
       </c>
       <c r="N45" t="n">
-        <v>1593.736849264934</v>
+        <v>1832.322735845125</v>
       </c>
       <c r="O45" t="n">
-        <v>1949.839525499798</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P45" t="n">
-        <v>2216.310251501501</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.496193436356</v>
+        <v>2583.105565158056</v>
       </c>
       <c r="R45" t="n">
         <v>2583.105565158056</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.3881255140002</v>
+        <v>717.3881255139996</v>
       </c>
       <c r="C46" t="n">
-        <v>604.8221557270407</v>
+        <v>604.8221557270402</v>
       </c>
       <c r="D46" t="n">
-        <v>511.0757294556524</v>
+        <v>511.075729455652</v>
       </c>
       <c r="E46" t="n">
-        <v>419.5328490142068</v>
+        <v>419.5328490142064</v>
       </c>
       <c r="F46" t="n">
-        <v>329.0131146572438</v>
+        <v>329.0131146572435</v>
       </c>
       <c r="G46" t="n">
-        <v>217.4832637291176</v>
+        <v>217.4832637291175</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8827588149306</v>
+        <v>125.8827588149305</v>
       </c>
       <c r="I46" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635182</v>
       </c>
       <c r="J46" t="n">
         <v>165.7007109240893</v>
       </c>
       <c r="K46" t="n">
-        <v>402.4780901932353</v>
+        <v>402.4780901932355</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5475071845392</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M46" t="n">
-        <v>1114.651934716889</v>
+        <v>1114.65193471689</v>
       </c>
       <c r="N46" t="n">
         <v>1481.728184930474</v>
       </c>
       <c r="O46" t="n">
-        <v>1808.983783392193</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P46" t="n">
         <v>2073.460656767446</v>
       </c>
       <c r="Q46" t="n">
-        <v>2190.132940535071</v>
+        <v>2190.132940535072</v>
       </c>
       <c r="R46" t="n">
-        <v>2147.804633369927</v>
+        <v>2147.804633369928</v>
       </c>
       <c r="S46" t="n">
         <v>2009.051825885426</v>
@@ -7843,13 +7843,13 @@
         <v>1411.755037858958</v>
       </c>
       <c r="W46" t="n">
-        <v>1178.708080962945</v>
+        <v>1178.708080962944</v>
       </c>
       <c r="X46" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.6663772032924</v>
+        <v>842.6663772032919</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>86.16452590766914</v>
       </c>
       <c r="N11" t="n">
-        <v>302.2808230190187</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>365.0056437604279</v>
       </c>
       <c r="N12" t="n">
-        <v>365.0056437604288</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.6031125166738</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>93.03198687037099</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,10 +8936,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>149.5787300196097</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>365.0056437604288</v>
+        <v>69.62184945320297</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.6031125166738</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>115.6313370621816</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>327.3349031528523</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>365.0056437604289</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>100.5404067478507</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9404,22 +9404,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>105.8502357692034</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>229.7661643374879</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>365.0056437604289</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>365.0056437604293</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>105.8502357692041</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>49.30349261997458</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>365.0056437604352</v>
       </c>
       <c r="N24" t="n">
-        <v>46.54287512049217</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.6031125166738</v>
+        <v>14.60311251667403</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>161.7453391004578</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>24.16612045930195</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>334.087086465782</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>238.9146084200202</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.6031125166738</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>245.7340798698353</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,13 +10121,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>37.13688353911613</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>365.0056437604288</v>
       </c>
       <c r="O30" t="n">
-        <v>28.83732068417117</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>14.6031125166738</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>93.03198687042646</v>
+        <v>129.8930201580756</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>100.5404067478505</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.54287512049149</v>
       </c>
       <c r="R33" t="n">
         <v>14.6031125166738</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>149.3309719022805</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3856967156766018</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>171.8290162874328</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>190.7127617530035</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,10 +10911,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>334.0870864657824</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>365.0056437604293</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>14.6031125166738</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>112.8275431961684</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.8777150515196</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0056437604291</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>124.0097987299332</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>14.6031125166738</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>125.7983062759823</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>20.07140657721061</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11379,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>365.0056437604292</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>124.0097987299333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>14.6031125166738</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>90.66646574138019</v>
       </c>
       <c r="G13" t="n">
         <v>166.2210634283829</v>
       </c>
       <c r="H13" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>102.2242758664309</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.71153510303044</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>30.27469743548852</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.2210634283829</v>
       </c>
       <c r="H16" t="n">
-        <v>146.4910108745831</v>
+        <v>146.4910108745832</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.224275866431</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>40.96515083310419</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>89.23355936836214</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H19" t="n">
-        <v>146.4910108745831</v>
+        <v>146.4910108745832</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.224275866431</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.71153510303044</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>193.1717904191954</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>22.16003305811302</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>191.111204613948</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>48.75350964148546</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>138.5459876900199</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H22" t="n">
-        <v>146.4910108745831</v>
+        <v>146.4910108745832</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2242758664309</v>
+        <v>102.224275866431</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.71153510303044</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.2210634283829</v>
       </c>
       <c r="H25" t="n">
-        <v>146.4910108745831</v>
+        <v>55.89259006101196</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2242758664309</v>
+        <v>102.2242758664311</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.71153510303044</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>112.4195382589434</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>146.4910108745831</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>203.4516652485806</v>
+        <v>282.9129180543633</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>129.8368876885835</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2210634283829</v>
+        <v>166.2210634283828</v>
       </c>
       <c r="H31" t="n">
         <v>146.4910108745831</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.1717904191954</v>
+        <v>193.1717904191953</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>42.49573159573458</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>142.514707301252</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.4889496310062</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>121.7588970772064</v>
+        <v>121.7588970772073</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>77.49216206905513</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.97942130565376</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4396766218187</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>195.6511075660351</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>40.52043685397565</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>261.7908845392152</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>137.2818380689872</v>
       </c>
     </row>
     <row r="35">
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-8.455458555545192e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.342925770586589e-12</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750182.2505914355</v>
+        <v>750182.2505914354</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750182.2505914355</v>
+        <v>750182.2505914356</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750182.2505914363</v>
+        <v>750182.2505914354</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>762918.331569639</v>
+        <v>762918.3315696379</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846411</v>
@@ -26320,28 +26320,28 @@
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>670743.8782840465</v>
+      </c>
+      <c r="F2" t="n">
         <v>670743.8782840461</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>670743.8782840464</v>
       </c>
-      <c r="G2" t="n">
-        <v>670743.8782840467</v>
-      </c>
       <c r="H2" t="n">
-        <v>670743.8782840465</v>
+        <v>670743.8782840464</v>
       </c>
       <c r="I2" t="n">
-        <v>670743.8782840464</v>
+        <v>670743.8782840462</v>
       </c>
       <c r="J2" t="n">
-        <v>670743.8782840467</v>
+        <v>670743.8782840463</v>
       </c>
       <c r="K2" t="n">
-        <v>670743.8782840464</v>
+        <v>670743.8782840462</v>
       </c>
       <c r="L2" t="n">
-        <v>682772.3992079048</v>
+        <v>682772.3992079033</v>
       </c>
       <c r="M2" t="n">
         <v>697885.5043846411</v>
@@ -26350,10 +26350,10 @@
         <v>697885.5043846411</v>
       </c>
       <c r="O2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="P2" t="n">
         <v>697885.504384641</v>
-      </c>
-      <c r="P2" t="n">
-        <v>697885.5043846408</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1075812.840977744</v>
+        <v>1075812.840977745</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910617</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
-        <v>3.628159902291372e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19785.69103790134</v>
+        <v>19785.6910379006</v>
       </c>
       <c r="M3" t="n">
-        <v>210874.6803490257</v>
+        <v>210874.6803490299</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
+        <v>40773.23846873335</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40773.23846873333</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40773.2384687334</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40773.2384687334</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40773.23846873358</v>
+      </c>
+      <c r="J4" t="n">
         <v>40773.23846873337</v>
       </c>
-      <c r="F4" t="n">
-        <v>40773.23846873339</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>40773.23846873338</v>
       </c>
-      <c r="H4" t="n">
-        <v>40773.23846873338</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40773.23846873338</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40773.23846873336</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40773.23846873177</v>
-      </c>
       <c r="L4" t="n">
-        <v>48911.33644600038</v>
+        <v>48911.33644600168</v>
       </c>
       <c r="M4" t="n">
-        <v>83469.11200210228</v>
+        <v>83469.11200210231</v>
       </c>
       <c r="N4" t="n">
-        <v>83469.11200210227</v>
+        <v>83469.11200210231</v>
       </c>
       <c r="O4" t="n">
         <v>83469.11200210225</v>
       </c>
       <c r="P4" t="n">
-        <v>83469.11200210222</v>
+        <v>83469.11200210231</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>94548.43424048128</v>
+        <v>94548.43424048129</v>
       </c>
       <c r="F5" t="n">
-        <v>94548.43424048128</v>
+        <v>94548.43424048129</v>
       </c>
       <c r="G5" t="n">
-        <v>94548.43424048128</v>
+        <v>94548.43424048129</v>
       </c>
       <c r="H5" t="n">
-        <v>94548.43424048128</v>
+        <v>94548.43424048129</v>
       </c>
       <c r="I5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048125</v>
       </c>
       <c r="J5" t="n">
         <v>94548.43424048128</v>
       </c>
       <c r="K5" t="n">
-        <v>94548.43424048212</v>
+        <v>94548.43424048129</v>
       </c>
       <c r="L5" t="n">
-        <v>96627.63831531379</v>
+        <v>96627.63831531287</v>
       </c>
       <c r="M5" t="n">
         <v>86125.32916542374</v>
       </c>
       <c r="N5" t="n">
-        <v>86125.32916542374</v>
+        <v>86125.32916542373</v>
       </c>
       <c r="O5" t="n">
-        <v>86125.32916542374</v>
+        <v>86125.32916542373</v>
       </c>
       <c r="P5" t="n">
         <v>86125.32916542373</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222769.1153840607</v>
+        <v>222769.1153840608</v>
       </c>
       <c r="C6" t="n">
         <v>303538.5469156085</v>
@@ -26528,37 +26528,37 @@
         <v>303538.5469156085</v>
       </c>
       <c r="E6" t="n">
-        <v>-540390.635402913</v>
+        <v>-540470.4637149733</v>
       </c>
       <c r="F6" t="n">
-        <v>535422.2055748318</v>
+        <v>535342.3772627709</v>
       </c>
       <c r="G6" t="n">
-        <v>535422.205574832</v>
+        <v>535342.3772627711</v>
       </c>
       <c r="H6" t="n">
-        <v>535422.2055748319</v>
+        <v>535342.3772627711</v>
       </c>
       <c r="I6" t="n">
-        <v>535422.2055748317</v>
+        <v>535342.3772627708</v>
       </c>
       <c r="J6" t="n">
-        <v>472362.2629757259</v>
+        <v>472282.4346636648</v>
       </c>
       <c r="K6" t="n">
-        <v>535422.2055748289</v>
+        <v>535342.3772627709</v>
       </c>
       <c r="L6" t="n">
-        <v>517447.7334086893</v>
+        <v>517403.2830993448</v>
       </c>
       <c r="M6" t="n">
-        <v>317416.3828680894</v>
+        <v>317416.3828680851</v>
       </c>
       <c r="N6" t="n">
         <v>528291.063217115</v>
       </c>
       <c r="O6" t="n">
-        <v>528291.0632171149</v>
+        <v>528291.0632171147</v>
       </c>
       <c r="P6" t="n">
         <v>528291.0632171149</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="M2" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="N2" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="O2" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P2" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4988339511692</v>
+        <v>981.4988339511694</v>
       </c>
       <c r="F3" t="n">
-        <v>981.4988339511692</v>
+        <v>981.4988339511694</v>
       </c>
       <c r="G3" t="n">
         <v>981.4988339511692</v>
@@ -26756,7 +26756,7 @@
         <v>981.4988339511692</v>
       </c>
       <c r="I3" t="n">
-        <v>981.4988339511692</v>
+        <v>981.4988339511674</v>
       </c>
       <c r="J3" t="n">
         <v>981.4988339511692</v>
@@ -26814,22 +26814,22 @@
         <v>1203.153941782003</v>
       </c>
       <c r="K4" t="n">
-        <v>1203.153941782017</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="L4" t="n">
-        <v>1203.153941782017</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="M4" t="n">
-        <v>987.451595579398</v>
+        <v>987.4515955793979</v>
       </c>
       <c r="N4" t="n">
-        <v>987.451595579398</v>
+        <v>987.4515955793977</v>
       </c>
       <c r="O4" t="n">
-        <v>987.451595579398</v>
+        <v>987.4515955793977</v>
       </c>
       <c r="P4" t="n">
-        <v>987.451595579398</v>
+        <v>987.4515955793977</v>
       </c>
     </row>
   </sheetData>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737575</v>
       </c>
       <c r="M2" t="n">
-        <v>31.07439721216132</v>
+        <v>31.07439721216224</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4988339511692</v>
+        <v>981.4988339511694</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
-        <v>1.409716787748039e-11</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.4373067017249</v>
+        <v>746.4373067017389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>325.1670924867542</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,22 +27421,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>195.6337119825833</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,22 +27458,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>169.9007906641791</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>185.1909579273893</v>
       </c>
     </row>
     <row r="4">
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>342.4963572180348</v>
       </c>
       <c r="C5" t="n">
-        <v>187.1155787390244</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27673,13 +27673,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.02020010956545</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>234.9934670470912</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27895,22 +27895,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>137.6456560835393</v>
+        <v>279.5870339257061</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>55.92513116551942</v>
       </c>
       <c r="D9" t="n">
-        <v>57.18494245425339</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28059,13 +28059,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,22 +28612,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.882546173493495e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28852,22 +28852,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29524,13 +29524,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-5.287723689697799e-11</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-4.895288185300948e-11</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="C34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="D34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="E34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="F34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="G34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="H34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="I34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="J34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="K34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="L34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="M34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="N34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="O34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="P34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="R34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="S34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="T34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="U34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="V34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="W34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="X34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.73211379737668</v>
+        <v>24.73211379737581</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="C35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="D35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="E35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="F35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="G35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="H35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="I35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="T35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="U35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="V35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="W35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="X35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="C37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="D37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="E37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="F37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="G37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="H37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="I37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="J37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="K37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="L37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="M37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="N37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="O37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="P37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="R37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="S37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="T37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="U37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="V37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="W37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="X37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="C38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="D38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="E38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="F38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="G38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="H38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="I38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="T38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="U38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="V38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="W38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="X38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.80651100953781</v>
+        <v>55.80651100953808</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="C40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="D40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="E40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="F40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="G40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="H40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="I40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="J40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="K40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="L40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="M40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="N40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="O40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="P40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="R40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="S40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="T40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="U40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="V40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="W40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="X40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953808</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G41" t="n">
-        <v>55.80651100953793</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="K43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="L43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="M43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="R43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="S43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953918</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="K46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="L46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="M46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="R46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="S46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.80651100953795</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.945723955582587</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H11" t="n">
-        <v>40.40914546011017</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I11" t="n">
-        <v>152.1175227975978</v>
+        <v>152.1175227975979</v>
       </c>
       <c r="J11" t="n">
-        <v>334.8883885751279</v>
+        <v>334.888388575128</v>
       </c>
       <c r="K11" t="n">
-        <v>501.9108836149389</v>
+        <v>501.910883614939</v>
       </c>
       <c r="L11" t="n">
-        <v>622.6648331205996</v>
+        <v>622.6648331205997</v>
       </c>
       <c r="M11" t="n">
-        <v>692.8346015156914</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N11" t="n">
-        <v>704.0453897044905</v>
+        <v>704.0453897044906</v>
       </c>
       <c r="O11" t="n">
-        <v>664.8100971211661</v>
+        <v>664.8100971211662</v>
       </c>
       <c r="P11" t="n">
-        <v>567.4000369677209</v>
+        <v>567.400036967721</v>
       </c>
       <c r="Q11" t="n">
-        <v>426.0937978084194</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R11" t="n">
         <v>247.8555824248649</v>
       </c>
       <c r="S11" t="n">
-        <v>89.91318463783828</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T11" t="n">
-        <v>17.27240661556278</v>
+        <v>17.27240661556279</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3156579164466069</v>
+        <v>0.315657916446607</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.111148435291194</v>
+        <v>2.111148435291195</v>
       </c>
       <c r="H12" t="n">
-        <v>20.38924936189127</v>
+        <v>20.38924936189128</v>
       </c>
       <c r="I12" t="n">
-        <v>72.68647025015736</v>
+        <v>72.68647025015737</v>
       </c>
       <c r="J12" t="n">
         <v>199.4572300202089</v>
       </c>
       <c r="K12" t="n">
-        <v>340.9041751847189</v>
+        <v>340.904175184719</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3877337240815</v>
+        <v>458.3877337240816</v>
       </c>
       <c r="M12" t="n">
-        <v>534.9168645033872</v>
+        <v>534.9168645033873</v>
       </c>
       <c r="N12" t="n">
-        <v>549.0745222119848</v>
+        <v>549.0745222119849</v>
       </c>
       <c r="O12" t="n">
-        <v>502.2959174089535</v>
+        <v>502.2959174089536</v>
       </c>
       <c r="P12" t="n">
-        <v>403.1367569110001</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q12" t="n">
-        <v>269.4862458803286</v>
+        <v>269.4862458803287</v>
       </c>
       <c r="R12" t="n">
-        <v>131.0763914472901</v>
+        <v>131.0763914472902</v>
       </c>
       <c r="S12" t="n">
-        <v>39.21365624323773</v>
+        <v>39.21365624323774</v>
       </c>
       <c r="T12" t="n">
-        <v>8.509409701897399</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U12" t="n">
         <v>0.1388913444270523</v>
@@ -31914,43 +31914,43 @@
         <v>15.73616163285646</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22619906082735</v>
+        <v>53.22619906082736</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1330562563646</v>
+        <v>125.1330562563647</v>
       </c>
       <c r="K13" t="n">
-        <v>205.6320507851793</v>
+        <v>205.6320507851794</v>
       </c>
       <c r="L13" t="n">
-        <v>263.1382283678266</v>
+        <v>263.1382283678267</v>
       </c>
       <c r="M13" t="n">
         <v>277.4423671118034</v>
       </c>
       <c r="N13" t="n">
-        <v>270.8454077360662</v>
+        <v>270.8454077360663</v>
       </c>
       <c r="O13" t="n">
-        <v>250.1695716438161</v>
+        <v>250.1695716438162</v>
       </c>
       <c r="P13" t="n">
-        <v>214.063286670268</v>
+        <v>214.0632866702681</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.2063239266265</v>
+        <v>148.2063239266266</v>
       </c>
       <c r="R13" t="n">
-        <v>79.58185627413904</v>
+        <v>79.58185627413906</v>
       </c>
       <c r="S13" t="n">
-        <v>30.84480761777689</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T13" t="n">
-        <v>7.562368064869662</v>
+        <v>7.562368064869664</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09654086891322985</v>
+        <v>0.09654086891322988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.945723955582587</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H14" t="n">
-        <v>40.40914546011017</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I14" t="n">
-        <v>152.1175227975978</v>
+        <v>152.1175227975979</v>
       </c>
       <c r="J14" t="n">
-        <v>334.8883885751279</v>
+        <v>334.888388575128</v>
       </c>
       <c r="K14" t="n">
-        <v>501.9108836149389</v>
+        <v>501.910883614939</v>
       </c>
       <c r="L14" t="n">
-        <v>622.6648331205996</v>
+        <v>622.6648331205997</v>
       </c>
       <c r="M14" t="n">
-        <v>692.8346015156914</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N14" t="n">
-        <v>704.0453897044905</v>
+        <v>704.0453897044906</v>
       </c>
       <c r="O14" t="n">
-        <v>664.8100971211661</v>
+        <v>664.8100971211662</v>
       </c>
       <c r="P14" t="n">
-        <v>567.4000369677209</v>
+        <v>567.400036967721</v>
       </c>
       <c r="Q14" t="n">
-        <v>426.0937978084194</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R14" t="n">
         <v>247.8555824248649</v>
       </c>
       <c r="S14" t="n">
-        <v>89.91318463783828</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T14" t="n">
-        <v>17.27240661556278</v>
+        <v>17.27240661556279</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3156579164466069</v>
+        <v>0.315657916446607</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.111148435291194</v>
+        <v>2.111148435291195</v>
       </c>
       <c r="H15" t="n">
-        <v>20.38924936189127</v>
+        <v>20.38924936189128</v>
       </c>
       <c r="I15" t="n">
-        <v>72.68647025015736</v>
+        <v>72.68647025015737</v>
       </c>
       <c r="J15" t="n">
         <v>199.4572300202089</v>
       </c>
       <c r="K15" t="n">
-        <v>340.9041751847189</v>
+        <v>340.904175184719</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3877337240815</v>
+        <v>458.3877337240816</v>
       </c>
       <c r="M15" t="n">
-        <v>534.9168645033872</v>
+        <v>534.9168645033873</v>
       </c>
       <c r="N15" t="n">
-        <v>549.0745222119848</v>
+        <v>549.0745222119849</v>
       </c>
       <c r="O15" t="n">
-        <v>502.2959174089535</v>
+        <v>502.2959174089536</v>
       </c>
       <c r="P15" t="n">
-        <v>403.1367569110001</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q15" t="n">
-        <v>269.4862458803286</v>
+        <v>269.4862458803287</v>
       </c>
       <c r="R15" t="n">
-        <v>131.0763914472901</v>
+        <v>131.0763914472902</v>
       </c>
       <c r="S15" t="n">
-        <v>39.21365624323773</v>
+        <v>39.21365624323774</v>
       </c>
       <c r="T15" t="n">
-        <v>8.509409701897399</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U15" t="n">
         <v>0.1388913444270523</v>
@@ -32151,43 +32151,43 @@
         <v>15.73616163285646</v>
       </c>
       <c r="I16" t="n">
-        <v>53.22619906082735</v>
+        <v>53.22619906082736</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1330562563646</v>
+        <v>125.1330562563647</v>
       </c>
       <c r="K16" t="n">
-        <v>205.6320507851793</v>
+        <v>205.6320507851794</v>
       </c>
       <c r="L16" t="n">
-        <v>263.1382283678266</v>
+        <v>263.1382283678267</v>
       </c>
       <c r="M16" t="n">
         <v>277.4423671118034</v>
       </c>
       <c r="N16" t="n">
-        <v>270.8454077360662</v>
+        <v>270.8454077360663</v>
       </c>
       <c r="O16" t="n">
-        <v>250.1695716438161</v>
+        <v>250.1695716438162</v>
       </c>
       <c r="P16" t="n">
-        <v>214.063286670268</v>
+        <v>214.0632866702681</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.2063239266265</v>
+        <v>148.2063239266266</v>
       </c>
       <c r="R16" t="n">
-        <v>79.58185627413904</v>
+        <v>79.58185627413906</v>
       </c>
       <c r="S16" t="n">
-        <v>30.84480761777689</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T16" t="n">
-        <v>7.562368064869662</v>
+        <v>7.562368064869664</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09654086891322985</v>
+        <v>0.09654086891322988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.945723955582587</v>
+        <v>3.945723955582579</v>
       </c>
       <c r="H23" t="n">
-        <v>40.40914546011017</v>
+        <v>40.4091454601101</v>
       </c>
       <c r="I23" t="n">
-        <v>152.1175227975978</v>
+        <v>152.1175227975975</v>
       </c>
       <c r="J23" t="n">
-        <v>334.8883885751279</v>
+        <v>334.8883885751272</v>
       </c>
       <c r="K23" t="n">
-        <v>501.9108836149389</v>
+        <v>501.910883614938</v>
       </c>
       <c r="L23" t="n">
-        <v>622.6648331205996</v>
+        <v>622.6648331205985</v>
       </c>
       <c r="M23" t="n">
-        <v>692.8346015156914</v>
+        <v>692.8346015156901</v>
       </c>
       <c r="N23" t="n">
-        <v>704.0453897044905</v>
+        <v>704.0453897044891</v>
       </c>
       <c r="O23" t="n">
-        <v>664.8100971211661</v>
+        <v>664.8100971211649</v>
       </c>
       <c r="P23" t="n">
-        <v>567.4000369677209</v>
+        <v>567.4000369677199</v>
       </c>
       <c r="Q23" t="n">
-        <v>426.0937978084194</v>
+        <v>426.0937978084186</v>
       </c>
       <c r="R23" t="n">
-        <v>247.8555824248649</v>
+        <v>247.8555824248644</v>
       </c>
       <c r="S23" t="n">
-        <v>89.91318463783828</v>
+        <v>89.91318463783811</v>
       </c>
       <c r="T23" t="n">
-        <v>17.27240661556278</v>
+        <v>17.27240661556275</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3156579164466069</v>
+        <v>0.3156579164466063</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.111148435291194</v>
+        <v>2.11114843529119</v>
       </c>
       <c r="H24" t="n">
-        <v>20.38924936189127</v>
+        <v>20.38924936189123</v>
       </c>
       <c r="I24" t="n">
-        <v>72.68647025015736</v>
+        <v>72.68647025015721</v>
       </c>
       <c r="J24" t="n">
-        <v>199.4572300202089</v>
+        <v>199.4572300202085</v>
       </c>
       <c r="K24" t="n">
-        <v>340.9041751847189</v>
+        <v>340.9041751847182</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3877337240815</v>
+        <v>458.3877337240806</v>
       </c>
       <c r="M24" t="n">
-        <v>534.9168645033872</v>
+        <v>534.9168645033861</v>
       </c>
       <c r="N24" t="n">
-        <v>549.0745222119848</v>
+        <v>549.0745222119838</v>
       </c>
       <c r="O24" t="n">
-        <v>502.2959174089535</v>
+        <v>502.2959174089526</v>
       </c>
       <c r="P24" t="n">
-        <v>403.1367569110001</v>
+        <v>403.1367569109993</v>
       </c>
       <c r="Q24" t="n">
-        <v>269.4862458803286</v>
+        <v>269.4862458803281</v>
       </c>
       <c r="R24" t="n">
-        <v>131.0763914472901</v>
+        <v>131.0763914472899</v>
       </c>
       <c r="S24" t="n">
-        <v>39.21365624323773</v>
+        <v>39.21365624323765</v>
       </c>
       <c r="T24" t="n">
-        <v>8.509409701897399</v>
+        <v>8.509409701897383</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1388913444270523</v>
+        <v>0.1388913444270521</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.769915930075879</v>
+        <v>1.769915930075875</v>
       </c>
       <c r="H25" t="n">
-        <v>15.73616163285646</v>
+        <v>15.73616163285643</v>
       </c>
       <c r="I25" t="n">
-        <v>53.22619906082735</v>
+        <v>53.22619906082726</v>
       </c>
       <c r="J25" t="n">
-        <v>125.1330562563646</v>
+        <v>125.1330562563644</v>
       </c>
       <c r="K25" t="n">
-        <v>205.6320507851793</v>
+        <v>205.6320507851789</v>
       </c>
       <c r="L25" t="n">
-        <v>263.1382283678266</v>
+        <v>263.1382283678261</v>
       </c>
       <c r="M25" t="n">
-        <v>277.4423671118034</v>
+        <v>277.4423671118029</v>
       </c>
       <c r="N25" t="n">
-        <v>270.8454077360662</v>
+        <v>270.8454077360657</v>
       </c>
       <c r="O25" t="n">
-        <v>250.1695716438161</v>
+        <v>250.1695716438157</v>
       </c>
       <c r="P25" t="n">
-        <v>214.063286670268</v>
+        <v>214.0632866702676</v>
       </c>
       <c r="Q25" t="n">
-        <v>148.2063239266265</v>
+        <v>148.2063239266263</v>
       </c>
       <c r="R25" t="n">
-        <v>79.58185627413904</v>
+        <v>79.58185627413889</v>
       </c>
       <c r="S25" t="n">
-        <v>30.84480761777689</v>
+        <v>30.84480761777684</v>
       </c>
       <c r="T25" t="n">
-        <v>7.562368064869662</v>
+        <v>7.562368064869648</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09654086891322985</v>
+        <v>0.09654086891322967</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>322.9390992205153</v>
+        <v>322.9390992205155</v>
       </c>
       <c r="K11" t="n">
-        <v>281.8210325699583</v>
+        <v>605.9664451411231</v>
       </c>
       <c r="L11" t="n">
-        <v>804.5596327010628</v>
+        <v>386.8984181506125</v>
       </c>
       <c r="M11" t="n">
-        <v>912.0019017812511</v>
+        <v>548.652894196088</v>
       </c>
       <c r="N11" t="n">
-        <v>776.9131491269183</v>
+        <v>911.9792505198839</v>
       </c>
       <c r="O11" t="n">
-        <v>815.5120669622247</v>
+        <v>815.5120669622248</v>
       </c>
       <c r="P11" t="n">
-        <v>336.1670412124514</v>
+        <v>657.9657493839341</v>
       </c>
       <c r="Q11" t="n">
-        <v>416.1030985938746</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R11" t="n">
-        <v>97.9864644837152</v>
+        <v>97.98646448371525</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>72.61960335354217</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K12" t="n">
-        <v>203.0627362103599</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L12" t="n">
-        <v>319.8333539442073</v>
+        <v>319.8333539442074</v>
       </c>
       <c r="M12" t="n">
-        <v>392.7828305813688</v>
+        <v>757.7884743417968</v>
       </c>
       <c r="N12" t="n">
-        <v>782.7384538890803</v>
+        <v>417.7328101286516</v>
       </c>
       <c r="O12" t="n">
-        <v>359.6996729645091</v>
+        <v>359.6996729645092</v>
       </c>
       <c r="P12" t="n">
-        <v>269.1623494966698</v>
+        <v>269.1623494966699</v>
       </c>
       <c r="Q12" t="n">
-        <v>129.5044717943071</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.77387613969185</v>
+        <v>31.77387613969188</v>
       </c>
       <c r="K13" t="n">
         <v>183.3625589592965</v>
       </c>
       <c r="L13" t="n">
-        <v>290.7282536281427</v>
+        <v>290.7282536281429</v>
       </c>
       <c r="M13" t="n">
         <v>317.026244073644</v>
       </c>
       <c r="N13" t="n">
-        <v>314.9775801152948</v>
+        <v>314.9775801152949</v>
       </c>
       <c r="O13" t="n">
         <v>274.7546995578558</v>
       </c>
       <c r="P13" t="n">
-        <v>211.3418459351615</v>
+        <v>211.3418459351616</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.04428067493215</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.8424840484416</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K14" t="n">
-        <v>281.8210325699583</v>
+        <v>374.8530194403294</v>
       </c>
       <c r="L14" t="n">
-        <v>804.5596327010628</v>
+        <v>804.5596327010629</v>
       </c>
       <c r="M14" t="n">
-        <v>912.0019017812511</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N14" t="n">
-        <v>624.2110561275093</v>
+        <v>911.9792505198839</v>
       </c>
       <c r="O14" t="n">
-        <v>815.5120669622247</v>
+        <v>434.7118856994795</v>
       </c>
       <c r="P14" t="n">
         <v>657.9657493839341</v>
       </c>
       <c r="Q14" t="n">
-        <v>416.1030985938746</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R14" t="n">
-        <v>97.9864644837152</v>
+        <v>97.98646448371525</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>72.61960335354217</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K15" t="n">
-        <v>203.0627362103599</v>
+        <v>467.5279732229386</v>
       </c>
       <c r="L15" t="n">
-        <v>319.8333539442073</v>
+        <v>319.8333539442074</v>
       </c>
       <c r="M15" t="n">
-        <v>392.7828305813688</v>
+        <v>392.782830581369</v>
       </c>
       <c r="N15" t="n">
-        <v>417.7328101286515</v>
+        <v>417.7328101286516</v>
       </c>
       <c r="O15" t="n">
-        <v>724.7053167249379</v>
+        <v>429.3215224177122</v>
       </c>
       <c r="P15" t="n">
-        <v>269.1623494966698</v>
+        <v>269.1623494966699</v>
       </c>
       <c r="Q15" t="n">
-        <v>129.5044717943071</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.91855729464707</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.77387613969185</v>
+        <v>31.77387613969182</v>
       </c>
       <c r="K16" t="n">
         <v>183.3625589592965</v>
       </c>
       <c r="L16" t="n">
-        <v>290.7282536281427</v>
+        <v>290.7282536281429</v>
       </c>
       <c r="M16" t="n">
         <v>317.026244073644</v>
@@ -35823,7 +35823,7 @@
         <v>211.3418459351615</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.04428067493215</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>322.9390992205153</v>
+        <v>269.4738211106232</v>
       </c>
       <c r="K17" t="n">
         <v>605.9664451411231</v>
@@ -35896,7 +35896,7 @@
         <v>911.9792505198837</v>
       </c>
       <c r="O17" t="n">
-        <v>762.0467888523317</v>
+        <v>815.5120669622247</v>
       </c>
       <c r="P17" t="n">
         <v>657.9657493839341</v>
@@ -35963,10 +35963,10 @@
         <v>72.61960335354217</v>
       </c>
       <c r="K18" t="n">
-        <v>203.0627362103599</v>
+        <v>467.5279732229385</v>
       </c>
       <c r="L18" t="n">
-        <v>684.8389977046362</v>
+        <v>319.8333539442073</v>
       </c>
       <c r="M18" t="n">
         <v>392.7828305813688</v>
@@ -35975,7 +35975,7 @@
         <v>417.7328101286515</v>
       </c>
       <c r="O18" t="n">
-        <v>359.6996729645091</v>
+        <v>460.2400797123598</v>
       </c>
       <c r="P18" t="n">
         <v>269.1623494966698</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.77387613969185</v>
+        <v>31.77387613969179</v>
       </c>
       <c r="K19" t="n">
-        <v>183.3625589592965</v>
+        <v>183.3625589592964</v>
       </c>
       <c r="L19" t="n">
-        <v>290.7282536281427</v>
+        <v>290.7282536281426</v>
       </c>
       <c r="M19" t="n">
         <v>317.026244073644</v>
@@ -36054,10 +36054,10 @@
         <v>314.9775801152948</v>
       </c>
       <c r="O19" t="n">
-        <v>274.7546995578558</v>
+        <v>274.7546995578557</v>
       </c>
       <c r="P19" t="n">
-        <v>211.3418459351615</v>
+        <v>211.3418459351614</v>
       </c>
       <c r="Q19" t="n">
         <v>62.04428067493215</v>
@@ -36124,22 +36124,22 @@
         <v>605.9664451411231</v>
       </c>
       <c r="L20" t="n">
-        <v>804.5596327010628</v>
+        <v>386.8984181506124</v>
       </c>
       <c r="M20" t="n">
-        <v>568.3386040576221</v>
+        <v>912.0019017812511</v>
       </c>
       <c r="N20" t="n">
-        <v>474.6323261078996</v>
+        <v>911.9792505198837</v>
       </c>
       <c r="O20" t="n">
-        <v>815.5120669622247</v>
+        <v>664.4780500369673</v>
       </c>
       <c r="P20" t="n">
         <v>657.9657493839341</v>
       </c>
       <c r="Q20" t="n">
-        <v>416.1030985938746</v>
+        <v>203.7881079339699</v>
       </c>
       <c r="R20" t="n">
         <v>97.9864644837152</v>
@@ -36203,13 +36203,13 @@
         <v>203.0627362103599</v>
       </c>
       <c r="L21" t="n">
-        <v>684.8389977046362</v>
+        <v>319.8333539442073</v>
       </c>
       <c r="M21" t="n">
         <v>392.7828305813688</v>
       </c>
       <c r="N21" t="n">
-        <v>417.7328101286515</v>
+        <v>782.7384538890808</v>
       </c>
       <c r="O21" t="n">
         <v>359.6996729645091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.77387613969185</v>
+        <v>31.77387613969179</v>
       </c>
       <c r="K22" t="n">
-        <v>183.3625589592965</v>
+        <v>183.3625589592964</v>
       </c>
       <c r="L22" t="n">
-        <v>290.7282536281427</v>
+        <v>290.7282536281426</v>
       </c>
       <c r="M22" t="n">
         <v>317.026244073644</v>
@@ -36291,10 +36291,10 @@
         <v>314.9775801152948</v>
       </c>
       <c r="O22" t="n">
-        <v>274.7546995578558</v>
+        <v>274.7546995578557</v>
       </c>
       <c r="P22" t="n">
-        <v>211.3418459351615</v>
+        <v>211.3418459351614</v>
       </c>
       <c r="Q22" t="n">
         <v>62.04428067493215</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>322.9390992205153</v>
+        <v>322.9390992205147</v>
       </c>
       <c r="K23" t="n">
-        <v>605.9664451411231</v>
+        <v>605.9664451411222</v>
       </c>
       <c r="L23" t="n">
-        <v>804.5596327010628</v>
+        <v>804.5596327010617</v>
       </c>
       <c r="M23" t="n">
-        <v>568.3386040576228</v>
+        <v>462.4883682884174</v>
       </c>
       <c r="N23" t="n">
-        <v>474.6323261078996</v>
+        <v>911.9792505198824</v>
       </c>
       <c r="O23" t="n">
-        <v>815.5120669622247</v>
+        <v>484.0153783194527</v>
       </c>
       <c r="P23" t="n">
-        <v>657.9657493839341</v>
+        <v>657.9657493839329</v>
       </c>
       <c r="Q23" t="n">
-        <v>416.1030985938746</v>
+        <v>416.1030985938738</v>
       </c>
       <c r="R23" t="n">
-        <v>97.9864644837152</v>
+        <v>97.98646448371474</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>72.61960335354217</v>
+        <v>72.61960335354181</v>
       </c>
       <c r="K24" t="n">
-        <v>203.0627362103599</v>
+        <v>203.0627362103592</v>
       </c>
       <c r="L24" t="n">
-        <v>319.8333539442073</v>
+        <v>319.8333539442065</v>
       </c>
       <c r="M24" t="n">
-        <v>392.7828305813688</v>
+        <v>757.7884743418031</v>
       </c>
       <c r="N24" t="n">
-        <v>464.2756852491437</v>
+        <v>417.7328101286505</v>
       </c>
       <c r="O24" t="n">
-        <v>359.6996729645091</v>
+        <v>359.6996729645082</v>
       </c>
       <c r="P24" t="n">
-        <v>587.6251181366069</v>
+        <v>269.1623494966691</v>
       </c>
       <c r="Q24" t="n">
-        <v>129.5044717943071</v>
+        <v>129.5044717943066</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.77387613969185</v>
+        <v>31.77387613969155</v>
       </c>
       <c r="K25" t="n">
-        <v>183.3625589592965</v>
+        <v>183.362558959296</v>
       </c>
       <c r="L25" t="n">
-        <v>290.7282536281427</v>
+        <v>290.7282536281422</v>
       </c>
       <c r="M25" t="n">
-        <v>317.026244073644</v>
+        <v>317.0262440736435</v>
       </c>
       <c r="N25" t="n">
-        <v>314.9775801152948</v>
+        <v>314.9775801152942</v>
       </c>
       <c r="O25" t="n">
-        <v>274.7546995578558</v>
+        <v>274.7546995578552</v>
       </c>
       <c r="P25" t="n">
-        <v>211.3418459351615</v>
+        <v>211.341845935161</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.04428067493215</v>
+        <v>62.0442806749319</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>322.9390992205153</v>
+        <v>153.8424840484416</v>
       </c>
       <c r="K26" t="n">
-        <v>605.9664451411231</v>
+        <v>281.8210325699583</v>
       </c>
       <c r="L26" t="n">
-        <v>386.8984181506124</v>
+        <v>804.5596327010628</v>
       </c>
       <c r="M26" t="n">
-        <v>912.0019017812511</v>
+        <v>624.2337073888765</v>
       </c>
       <c r="N26" t="n">
         <v>911.9792505198837</v>
@@ -36610,13 +36610,13 @@
         <v>815.5120669622247</v>
       </c>
       <c r="P26" t="n">
-        <v>336.1670412124514</v>
+        <v>657.9657493839341</v>
       </c>
       <c r="Q26" t="n">
         <v>416.1030985938746</v>
       </c>
       <c r="R26" t="n">
-        <v>56.4361650700347</v>
+        <v>97.9864644837152</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>198.710638693951</v>
+        <v>72.61960335354217</v>
       </c>
       <c r="K27" t="n">
         <v>203.0627362103599</v>
       </c>
       <c r="L27" t="n">
-        <v>319.8333539442073</v>
+        <v>653.9204404099893</v>
       </c>
       <c r="M27" t="n">
         <v>392.7828305813688</v>
       </c>
       <c r="N27" t="n">
-        <v>656.6474185486717</v>
+        <v>417.7328101286515</v>
       </c>
       <c r="O27" t="n">
         <v>359.6996729645091</v>
@@ -36695,7 +36695,7 @@
         <v>129.5044717943071</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.91855729464702</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>322.9390992205153</v>
       </c>
       <c r="K29" t="n">
-        <v>527.5551124397937</v>
+        <v>605.9664451411231</v>
       </c>
       <c r="L29" t="n">
         <v>804.5596327010628</v>
@@ -36841,13 +36841,13 @@
         <v>912.0019017812511</v>
       </c>
       <c r="N29" t="n">
-        <v>911.9792505198837</v>
+        <v>511.7692096470157</v>
       </c>
       <c r="O29" t="n">
         <v>434.7118856994794</v>
       </c>
       <c r="P29" t="n">
-        <v>336.1670412124514</v>
+        <v>657.9657493839341</v>
       </c>
       <c r="Q29" t="n">
         <v>416.1030985938746</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>198.710638693951</v>
+        <v>72.61960335354217</v>
       </c>
       <c r="K30" t="n">
         <v>203.0627362103599</v>
@@ -36920,16 +36920,16 @@
         <v>392.7828305813688</v>
       </c>
       <c r="N30" t="n">
-        <v>417.7328101286515</v>
+        <v>782.7384538890803</v>
       </c>
       <c r="O30" t="n">
-        <v>388.5369936486803</v>
+        <v>359.6996729645091</v>
       </c>
       <c r="P30" t="n">
         <v>269.1623494966698</v>
       </c>
       <c r="Q30" t="n">
-        <v>339.5817595301562</v>
+        <v>129.5044717943071</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.77387613969185</v>
+        <v>31.77387613969191</v>
       </c>
       <c r="K31" t="n">
         <v>183.3625589592965</v>
       </c>
       <c r="L31" t="n">
-        <v>290.7282536281427</v>
+        <v>290.7282536281428</v>
       </c>
       <c r="M31" t="n">
         <v>317.026244073644</v>
       </c>
       <c r="N31" t="n">
-        <v>314.9775801152948</v>
+        <v>314.9775801152949</v>
       </c>
       <c r="O31" t="n">
         <v>274.7546995578558</v>
       </c>
       <c r="P31" t="n">
-        <v>211.3418459351615</v>
+        <v>211.3418459351616</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.04428067493215</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>246.874470918868</v>
+        <v>283.7355042065171</v>
       </c>
       <c r="K32" t="n">
         <v>281.8210325699583</v>
       </c>
       <c r="L32" t="n">
-        <v>804.5596327010628</v>
+        <v>386.8984181506124</v>
       </c>
       <c r="M32" t="n">
         <v>912.0019017812511</v>
@@ -37081,7 +37081,7 @@
         <v>911.9792505198837</v>
       </c>
       <c r="O32" t="n">
-        <v>434.7118856994794</v>
+        <v>815.5120669622247</v>
       </c>
       <c r="P32" t="n">
         <v>657.9657493839341</v>
@@ -37148,10 +37148,10 @@
         <v>72.61960335354217</v>
       </c>
       <c r="K33" t="n">
-        <v>467.5279732229385</v>
+        <v>203.0627362103599</v>
       </c>
       <c r="L33" t="n">
-        <v>420.3737606920578</v>
+        <v>319.8333539442073</v>
       </c>
       <c r="M33" t="n">
         <v>392.7828305813688</v>
@@ -37163,10 +37163,10 @@
         <v>359.6996729645091</v>
       </c>
       <c r="P33" t="n">
-        <v>269.1623494966698</v>
+        <v>587.6251181366069</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.5044717943071</v>
+        <v>176.0473469147986</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.50598993706853</v>
+        <v>56.50598993706765</v>
       </c>
       <c r="K34" t="n">
-        <v>208.0946727566732</v>
+        <v>208.0946727566723</v>
       </c>
       <c r="L34" t="n">
-        <v>315.4603674255194</v>
+        <v>315.4603674255185</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7583578710206</v>
+        <v>341.7583578710198</v>
       </c>
       <c r="N34" t="n">
-        <v>339.7096939126715</v>
+        <v>339.7096939126707</v>
       </c>
       <c r="O34" t="n">
-        <v>299.4868133552325</v>
+        <v>299.4868133552316</v>
       </c>
       <c r="P34" t="n">
-        <v>236.0739597325382</v>
+        <v>236.0739597325373</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.77639447230884</v>
+        <v>86.77639447230797</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>322.9390992205153</v>
       </c>
       <c r="K35" t="n">
-        <v>605.9664451411231</v>
+        <v>281.8210325699583</v>
       </c>
       <c r="L35" t="n">
-        <v>386.8984181506124</v>
+        <v>536.2293900528929</v>
       </c>
       <c r="M35" t="n">
         <v>462.4883682884187</v>
@@ -37318,16 +37318,16 @@
         <v>911.9792505198837</v>
       </c>
       <c r="O35" t="n">
-        <v>435.097582415156</v>
+        <v>434.7118856994794</v>
       </c>
       <c r="P35" t="n">
-        <v>336.1670412124514</v>
+        <v>657.9657493839341</v>
       </c>
       <c r="Q35" t="n">
-        <v>416.1030985938746</v>
+        <v>203.7881079339699</v>
       </c>
       <c r="R35" t="n">
-        <v>32.27004461073275</v>
+        <v>97.9864644837152</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.58038714922985</v>
+        <v>87.58038714922989</v>
       </c>
       <c r="K37" t="n">
         <v>239.1690699688345</v>
       </c>
       <c r="L37" t="n">
-        <v>346.5347646376807</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M37" t="n">
         <v>372.832755083182</v>
       </c>
       <c r="N37" t="n">
-        <v>370.7840911248328</v>
+        <v>370.7840911248329</v>
       </c>
       <c r="O37" t="n">
-        <v>330.5612105673938</v>
+        <v>330.5612105673939</v>
       </c>
       <c r="P37" t="n">
-        <v>267.1483569446995</v>
+        <v>267.1483569446996</v>
       </c>
       <c r="Q37" t="n">
         <v>117.8507916844702</v>
@@ -37549,22 +37549,22 @@
         <v>386.8984181506124</v>
       </c>
       <c r="M38" t="n">
-        <v>462.4883682884187</v>
+        <v>912.0019017812511</v>
       </c>
       <c r="N38" t="n">
         <v>911.9792505198837</v>
       </c>
       <c r="O38" t="n">
-        <v>606.5409019869121</v>
+        <v>434.7118856994794</v>
       </c>
       <c r="P38" t="n">
-        <v>657.9657493839341</v>
+        <v>336.1670412124514</v>
       </c>
       <c r="Q38" t="n">
-        <v>416.1030985938746</v>
+        <v>394.5008696869734</v>
       </c>
       <c r="R38" t="n">
-        <v>32.27004461073275</v>
+        <v>97.9864644837152</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>392.7828305813688</v>
       </c>
       <c r="N39" t="n">
-        <v>751.8198965944339</v>
+        <v>417.7328101286515</v>
       </c>
       <c r="O39" t="n">
-        <v>359.6996729645091</v>
+        <v>724.7053167249384</v>
       </c>
       <c r="P39" t="n">
         <v>269.1623494966698</v>
@@ -37643,7 +37643,7 @@
         <v>129.5044717943071</v>
       </c>
       <c r="R39" t="n">
-        <v>30.91855729464702</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.58038714922985</v>
+        <v>87.58038714922992</v>
       </c>
       <c r="K40" t="n">
         <v>239.1690699688345</v>
       </c>
       <c r="L40" t="n">
-        <v>346.5347646376807</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M40" t="n">
-        <v>372.832755083182</v>
+        <v>372.8327550831821</v>
       </c>
       <c r="N40" t="n">
         <v>370.7840911248329</v>
       </c>
       <c r="O40" t="n">
-        <v>330.5612105673938</v>
+        <v>330.5612105673939</v>
       </c>
       <c r="P40" t="n">
-        <v>267.1483569446995</v>
+        <v>267.1483569446996</v>
       </c>
       <c r="Q40" t="n">
         <v>117.8507916844702</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>322.9390992205153</v>
+        <v>153.8424840484416</v>
       </c>
       <c r="K41" t="n">
         <v>281.8210325699583</v>
       </c>
       <c r="L41" t="n">
-        <v>386.8984181506124</v>
+        <v>499.7259613467808</v>
       </c>
       <c r="M41" t="n">
         <v>462.4883682884187</v>
       </c>
       <c r="N41" t="n">
-        <v>474.6323261078996</v>
+        <v>911.9792505198837</v>
       </c>
       <c r="O41" t="n">
         <v>815.5120669622247</v>
       </c>
       <c r="P41" t="n">
-        <v>657.9657493839341</v>
+        <v>336.1670412124514</v>
       </c>
       <c r="Q41" t="n">
-        <v>409.6658229854895</v>
+        <v>416.1030985938746</v>
       </c>
       <c r="R41" t="n">
-        <v>97.9864644837152</v>
+        <v>32.27004461073275</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>319.8333539442073</v>
       </c>
       <c r="M42" t="n">
-        <v>757.788474341798</v>
+        <v>392.7828305813688</v>
       </c>
       <c r="N42" t="n">
         <v>417.7328101286515</v>
       </c>
       <c r="O42" t="n">
-        <v>359.6996729645091</v>
+        <v>483.7094716944423</v>
       </c>
       <c r="P42" t="n">
         <v>269.1623494966698</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.5044717943071</v>
+        <v>339.5817595301562</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>30.91855729464702</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.58038714922985</v>
+        <v>87.58038714922986</v>
       </c>
       <c r="K43" t="n">
         <v>239.1690699688345</v>
       </c>
       <c r="L43" t="n">
-        <v>346.5347646376807</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M43" t="n">
         <v>372.832755083182</v>
@@ -37950,7 +37950,7 @@
         <v>370.7840911248329</v>
       </c>
       <c r="O43" t="n">
-        <v>330.5612105673938</v>
+        <v>330.5612105673939</v>
       </c>
       <c r="P43" t="n">
         <v>267.1483569446995</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>322.9390992205153</v>
+        <v>153.8424840484416</v>
       </c>
       <c r="K44" t="n">
-        <v>605.9664451411231</v>
+        <v>407.6193388459407</v>
       </c>
       <c r="L44" t="n">
         <v>804.5596327010628</v>
@@ -38026,19 +38026,19 @@
         <v>462.4883682884187</v>
       </c>
       <c r="N44" t="n">
-        <v>494.7037326851102</v>
+        <v>474.6323261078996</v>
       </c>
       <c r="O44" t="n">
         <v>434.7118856994794</v>
       </c>
       <c r="P44" t="n">
-        <v>336.1670412124514</v>
+        <v>657.9657493839341</v>
       </c>
       <c r="Q44" t="n">
         <v>416.1030985938746</v>
       </c>
       <c r="R44" t="n">
-        <v>32.27004461073275</v>
+        <v>97.9864644837152</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>203.0627362103599</v>
       </c>
       <c r="L45" t="n">
-        <v>319.8333539442073</v>
+        <v>684.8389977046365</v>
       </c>
       <c r="M45" t="n">
         <v>392.7828305813688</v>
       </c>
       <c r="N45" t="n">
-        <v>541.7426088585848</v>
+        <v>417.7328101286515</v>
       </c>
       <c r="O45" t="n">
         <v>359.6996729645091</v>
@@ -38114,10 +38114,10 @@
         <v>269.1623494966698</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.5817595301562</v>
+        <v>129.5044717943071</v>
       </c>
       <c r="R45" t="n">
-        <v>30.91855729464702</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.58038714922981</v>
+        <v>87.58038714922986</v>
       </c>
       <c r="K46" t="n">
-        <v>239.1690699688344</v>
+        <v>239.1690699688345</v>
       </c>
       <c r="L46" t="n">
-        <v>346.5347646376807</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M46" t="n">
-        <v>372.8327550831819</v>
+        <v>372.832755083182</v>
       </c>
       <c r="N46" t="n">
-        <v>370.7840911248328</v>
+        <v>370.7840911248329</v>
       </c>
       <c r="O46" t="n">
-        <v>330.5612105673937</v>
+        <v>330.5612105673939</v>
       </c>
       <c r="P46" t="n">
         <v>267.1483569446995</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.8507916844701</v>
+        <v>117.8507916844702</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
